--- a/cbrunner/Parameters/Workbook_BCForestSector.xlsx
+++ b/cbrunner/Parameters/Workbook_BCForestSector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1B2C3-26E1-4819-B746-36422E2E5579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5B6DA-4917-44EF-A4FE-52DACADACBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
+    <workbookView xWindow="1020" yWindow="12" windowWidth="22092" windowHeight="7680" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
   <si>
     <t>Year</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>Consumption Natural Gas BC (1000m3/yr)</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=2510008402&amp;pickMembers%5B0%5D=1.11&amp;pickMembers%5B1%5D=2.1&amp;cubeTimeFrame.startYear=2020&amp;cubeTimeFrame.endYear=2022&amp;referencePeriods=20200101%2C20220101</t>
+  </si>
+  <si>
+    <t>Production Electricity Total BC (MWh)</t>
+  </si>
+  <si>
+    <t>Production Electricity Wood BC (MWh)</t>
+  </si>
+  <si>
+    <t>Production Electricity Pulping Liquor BC (MWh)</t>
   </si>
 </sst>
 </file>
@@ -647,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -655,21 +667,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -730,9 +733,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -747,6 +747,15 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,13 +1098,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B68DB-5605-4152-9FD3-1C1553CFC20E}">
-  <dimension ref="A1:FB24"/>
+  <dimension ref="A1:FJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AU2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AY14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BI15" sqref="BI15"/>
+      <selection pane="bottomRight" activeCell="BE21" sqref="BE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,12 +1124,12 @@
     <col min="44" max="44" width="11.33203125" style="1" customWidth="1"/>
     <col min="45" max="52" width="8.88671875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="11.6640625" style="1" customWidth="1"/>
-    <col min="63" max="67" width="10.44140625" style="1" customWidth="1"/>
-    <col min="68" max="172" width="10.44140625" customWidth="1"/>
+    <col min="54" max="70" width="11.6640625" style="1" customWidth="1"/>
+    <col min="71" max="75" width="10.44140625" style="1" customWidth="1"/>
+    <col min="76" max="180" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:166" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1283,320 +1292,334 @@
       <c r="BB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BL1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BM1" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BN1" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BO1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BP1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BR1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BS1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BT1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BU1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BV1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BY1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="CA1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="CB1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="CC1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="CD1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="CF1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CH1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CI1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CL1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CM1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CN1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CR1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CS1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CT1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="ER1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="ES1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="FA1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="FB1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -1692,16 +1715,16 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="24"/>
-      <c r="BG2" s="25"/>
-      <c r="BH2" s="25"/>
-      <c r="BI2" s="25"/>
-      <c r="BJ2" s="25"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
     </row>
-    <row r="3" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -1797,16 +1820,16 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -1979,18 +2002,26 @@
       <c r="AZ4" s="14"/>
       <c r="BA4" s="14"/>
       <c r="BB4" s="14"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -2165,18 +2196,26 @@
       <c r="AZ5" s="14"/>
       <c r="BA5" s="14"/>
       <c r="BB5" s="14"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="23"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="23"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="24"/>
+      <c r="BQ5" s="24"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -2351,18 +2390,26 @@
       <c r="AZ6" s="14"/>
       <c r="BA6" s="14"/>
       <c r="BB6" s="14"/>
-      <c r="BC6" s="24"/>
-      <c r="BD6" s="24"/>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="24"/>
-      <c r="BG6" s="25"/>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="25"/>
-      <c r="BJ6" s="25"/>
-      <c r="BK6" s="14"/>
-      <c r="BL6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -2537,18 +2584,26 @@
       <c r="AZ7" s="14"/>
       <c r="BA7" s="14"/>
       <c r="BB7" s="14"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="23"/>
+      <c r="BL7" s="23"/>
+      <c r="BM7" s="23"/>
+      <c r="BN7" s="23"/>
+      <c r="BO7" s="24"/>
+      <c r="BP7" s="24"/>
+      <c r="BQ7" s="24"/>
+      <c r="BR7" s="24"/>
+      <c r="BS7" s="14"/>
+      <c r="BT7" s="14"/>
     </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -2723,18 +2778,26 @@
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
       <c r="BB8" s="14"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="25"/>
-      <c r="BH8" s="25"/>
-      <c r="BI8" s="25"/>
-      <c r="BJ8" s="25"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="23"/>
+      <c r="BL8" s="23"/>
+      <c r="BM8" s="23"/>
+      <c r="BN8" s="23"/>
+      <c r="BO8" s="24"/>
+      <c r="BP8" s="24"/>
+      <c r="BQ8" s="24"/>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
     </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -2909,18 +2972,26 @@
       <c r="AZ9" s="14"/>
       <c r="BA9" s="14"/>
       <c r="BB9" s="14"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
     </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -3095,18 +3166,26 @@
       <c r="AZ10" s="14"/>
       <c r="BA10" s="14"/>
       <c r="BB10" s="14"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="14"/>
-      <c r="BL10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="23"/>
+      <c r="BL10" s="23"/>
+      <c r="BM10" s="23"/>
+      <c r="BN10" s="23"/>
+      <c r="BO10" s="24"/>
+      <c r="BP10" s="24"/>
+      <c r="BQ10" s="24"/>
+      <c r="BR10" s="24"/>
+      <c r="BS10" s="14"/>
+      <c r="BT10" s="14"/>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -3281,18 +3360,26 @@
       <c r="AZ11" s="14"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="24"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="24"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="23"/>
+      <c r="BO11" s="24"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="24"/>
+      <c r="BR11" s="24"/>
+      <c r="BS11" s="14"/>
+      <c r="BT11" s="14"/>
     </row>
-    <row r="12" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -3477,18 +3564,26 @@
       <c r="AZ12" s="14"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="25"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="23"/>
+      <c r="BL12" s="23"/>
+      <c r="BM12" s="23"/>
+      <c r="BN12" s="23"/>
+      <c r="BO12" s="24"/>
+      <c r="BP12" s="24"/>
+      <c r="BQ12" s="24"/>
+      <c r="BR12" s="24"/>
+      <c r="BS12" s="14"/>
+      <c r="BT12" s="14"/>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -3664,18 +3759,26 @@
       <c r="AZ13" s="14"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="14"/>
-      <c r="BL13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
+      <c r="BO13" s="24"/>
+      <c r="BP13" s="24"/>
+      <c r="BQ13" s="24"/>
+      <c r="BR13" s="24"/>
+      <c r="BS13" s="14"/>
+      <c r="BT13" s="14"/>
     </row>
-    <row r="14" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -3860,18 +3963,26 @@
       <c r="AZ14" s="14"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="24"/>
-      <c r="BD14" s="24"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="24"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="23"/>
+      <c r="BN14" s="23"/>
+      <c r="BO14" s="24"/>
+      <c r="BP14" s="24"/>
+      <c r="BQ14" s="24"/>
+      <c r="BR14" s="24"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -4056,217 +4167,225 @@
       <c r="AZ15" s="14"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="24">
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="23">
         <v>58853568.299999997</v>
       </c>
-      <c r="BD15" s="24">
+      <c r="BL15" s="23">
         <v>3136365.1964609982</v>
       </c>
-      <c r="BE15" s="24">
+      <c r="BM15" s="23">
         <v>50315758.892777875</v>
       </c>
-      <c r="BF15" s="24">
+      <c r="BN15" s="23">
         <v>12121402.403683126</v>
       </c>
-      <c r="BG15" s="25">
-        <f>BC15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BO15" s="24">
+        <f>BK15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2195.2380975900001</v>
       </c>
-      <c r="BH15" s="25">
-        <f>BD15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BP15" s="24">
+        <f>BL15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>116.98642182799523</v>
       </c>
-      <c r="BI15" s="25">
-        <f>BE15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BQ15" s="24">
+        <f>BM15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>1876.777806700615</v>
       </c>
-      <c r="BJ15" s="25">
-        <f>BF15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BR15" s="24">
+        <f>BN15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.12830965738067</v>
       </c>
-      <c r="BK15" s="19">
+      <c r="BS15" s="19">
         <f>28686634/1000</f>
         <v>28686.633999999998</v>
       </c>
-      <c r="BL15" s="19">
+      <c r="BT15" s="19">
         <f>11187524/1000</f>
         <v>11187.523999999999</v>
       </c>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19">
+      <c r="BU15" s="19"/>
+      <c r="BV15" s="19">
         <f>29489845/1000</f>
         <v>29489.845000000001</v>
       </c>
-      <c r="BO15" s="19">
+      <c r="BW15" s="19">
         <f>6910494/1000</f>
         <v>6910.4939999999997</v>
       </c>
-      <c r="BP15" s="19"/>
-      <c r="BQ15" s="19">
+      <c r="BX15" s="19"/>
+      <c r="BY15" s="19">
         <f>15448717/1000</f>
         <v>15448.717000000001</v>
       </c>
-      <c r="BR15" s="19">
+      <c r="BZ15" s="19">
         <f>1220266/1000</f>
         <v>1220.2660000000001</v>
       </c>
-      <c r="BS15" s="19"/>
-      <c r="BT15" s="19"/>
-      <c r="BU15" s="19">
+      <c r="CA15" s="19"/>
+      <c r="CB15" s="19"/>
+      <c r="CC15" s="19">
         <f>1098884/1000</f>
         <v>1098.884</v>
       </c>
-      <c r="BV15" s="19"/>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="19">
+      <c r="CD15" s="19"/>
+      <c r="CE15" s="19"/>
+      <c r="CF15" s="19">
         <f>135006/1000</f>
         <v>135.006</v>
       </c>
-      <c r="BY15" s="19"/>
-      <c r="BZ15" s="19"/>
-      <c r="CA15" s="19">
+      <c r="CG15" s="19"/>
+      <c r="CH15" s="19"/>
+      <c r="CI15" s="19">
         <f>1389024/1000</f>
         <v>1389.0239999999999</v>
       </c>
-      <c r="CB15" s="19"/>
-      <c r="CC15" s="19"/>
-      <c r="CD15" s="19">
+      <c r="CJ15" s="19"/>
+      <c r="CK15" s="19"/>
+      <c r="CL15" s="19">
         <f>573230/1000</f>
         <v>573.23</v>
       </c>
-      <c r="CE15" s="19"/>
-      <c r="CF15" s="19"/>
-      <c r="CG15" s="19">
+      <c r="CM15" s="19"/>
+      <c r="CN15" s="19"/>
+      <c r="CO15" s="19">
         <f>(1826699+565516)/1000</f>
         <v>2392.2150000000001</v>
       </c>
-      <c r="CH15" s="19"/>
-      <c r="CI15" s="19"/>
-      <c r="CJ15" s="19">
+      <c r="CP15" s="19"/>
+      <c r="CQ15" s="19"/>
+      <c r="CR15" s="19">
         <f>818032/1000</f>
         <v>818.03200000000004</v>
       </c>
-      <c r="CK15" s="19"/>
-      <c r="CL15" s="19"/>
-      <c r="CM15" s="19">
+      <c r="CS15" s="19"/>
+      <c r="CT15" s="19"/>
+      <c r="CU15" s="19">
         <f>229533/1000</f>
         <v>229.53299999999999</v>
       </c>
-      <c r="CN15" s="19"/>
-      <c r="CO15" s="19"/>
-      <c r="CP15" s="19">
+      <c r="CV15" s="19"/>
+      <c r="CW15" s="19"/>
+      <c r="CX15" s="19">
         <v>0</v>
       </c>
-      <c r="CQ15" s="19"/>
-      <c r="CR15" s="19"/>
-      <c r="CS15" s="19"/>
-      <c r="CT15" s="19"/>
-      <c r="CU15" s="19"/>
-      <c r="CV15" s="19">
+      <c r="CY15" s="19"/>
+      <c r="CZ15" s="19"/>
+      <c r="DA15" s="19"/>
+      <c r="DB15" s="19"/>
+      <c r="DC15" s="19"/>
+      <c r="DD15" s="19">
         <v>0</v>
       </c>
-      <c r="CW15" s="19"/>
-      <c r="CX15" s="19"/>
-      <c r="CY15" s="19">
+      <c r="DE15" s="19"/>
+      <c r="DF15" s="19"/>
+      <c r="DG15" s="19">
         <f>55557/1000</f>
         <v>55.557000000000002</v>
       </c>
-      <c r="CZ15" s="19"/>
-      <c r="DA15" s="19"/>
-      <c r="DB15" s="19">
+      <c r="DH15" s="19"/>
+      <c r="DI15" s="19"/>
+      <c r="DJ15" s="19">
         <f>47502/1000</f>
         <v>47.502000000000002</v>
       </c>
-      <c r="DC15" s="19"/>
-      <c r="DD15" s="19"/>
-      <c r="DE15" s="19">
+      <c r="DK15" s="19"/>
+      <c r="DL15" s="19"/>
+      <c r="DM15" s="19">
         <f>(-8212260-928790)/1000</f>
         <v>-9141.0499999999993</v>
       </c>
-      <c r="DF15" s="19"/>
-      <c r="DG15" s="19"/>
-      <c r="DH15" s="19">
+      <c r="DN15" s="19"/>
+      <c r="DO15" s="19"/>
+      <c r="DP15" s="19">
         <f>-2815765/1000</f>
         <v>-2815.7649999999999</v>
       </c>
-      <c r="DI15" s="19"/>
-      <c r="DJ15" s="19"/>
-      <c r="DK15" s="19">
+      <c r="DQ15" s="19"/>
+      <c r="DR15" s="19"/>
+      <c r="DS15" s="19">
         <f>-801916/1000</f>
         <v>-801.91600000000005</v>
       </c>
-      <c r="DL15" s="19"/>
-      <c r="DM15" s="19"/>
-      <c r="DN15" s="19"/>
-      <c r="DO15" s="19"/>
-      <c r="DP15" s="19"/>
-      <c r="DQ15" s="19"/>
-      <c r="DR15" s="19"/>
-      <c r="DS15" s="19"/>
       <c r="DT15" s="19"/>
       <c r="DU15" s="19"/>
       <c r="DV15" s="19"/>
-      <c r="DW15" s="19">
+      <c r="DW15" s="19"/>
+      <c r="DX15" s="19"/>
+      <c r="DY15" s="19"/>
+      <c r="DZ15" s="19"/>
+      <c r="EA15" s="19"/>
+      <c r="EB15" s="19"/>
+      <c r="EC15" s="19"/>
+      <c r="ED15" s="19"/>
+      <c r="EE15" s="19">
         <f>-58476/1000</f>
         <v>-58.475999999999999</v>
       </c>
-      <c r="DX15" s="19"/>
-      <c r="DY15" s="19"/>
-      <c r="DZ15" s="19">
+      <c r="EF15" s="19"/>
+      <c r="EG15" s="19"/>
+      <c r="EH15" s="19">
         <f>-221044/1000</f>
         <v>-221.04400000000001</v>
       </c>
-      <c r="EA15" s="19"/>
-      <c r="EB15" s="19"/>
-      <c r="EC15" s="19">
+      <c r="EI15" s="19"/>
+      <c r="EJ15" s="19"/>
+      <c r="EK15" s="19">
         <f>3968290/1000</f>
         <v>3968.29</v>
       </c>
-      <c r="ED15" s="19"/>
-      <c r="EE15" s="19"/>
-      <c r="EF15" s="19">
+      <c r="EL15" s="19"/>
+      <c r="EM15" s="19"/>
+      <c r="EN15" s="19">
         <f>2215958/1000</f>
         <v>2215.9580000000001</v>
       </c>
-      <c r="EG15" s="19"/>
-      <c r="EH15" s="19"/>
-      <c r="EI15" s="19">
+      <c r="EO15" s="19"/>
+      <c r="EP15" s="19"/>
+      <c r="EQ15" s="19">
         <f>113104/1000</f>
         <v>113.104</v>
       </c>
-      <c r="EJ15" s="19"/>
-      <c r="EK15" s="19"/>
-      <c r="EL15" s="19"/>
-      <c r="EM15" s="19"/>
-      <c r="EN15" s="19"/>
-      <c r="EO15" s="19">
-        <f>1810/1000</f>
-        <v>1.81</v>
-      </c>
-      <c r="EP15" s="19"/>
-      <c r="EQ15" s="19"/>
       <c r="ER15" s="19"/>
       <c r="ES15" s="19"/>
       <c r="ET15" s="19"/>
-      <c r="EU15" s="19">
+      <c r="EU15" s="19"/>
+      <c r="EV15" s="19"/>
+      <c r="EW15" s="19">
+        <f>1810/1000</f>
+        <v>1.81</v>
+      </c>
+      <c r="EX15" s="19"/>
+      <c r="EY15" s="19"/>
+      <c r="EZ15" s="19"/>
+      <c r="FA15" s="19"/>
+      <c r="FB15" s="19"/>
+      <c r="FC15" s="19">
         <f>457842/1000</f>
         <v>457.84199999999998</v>
       </c>
-      <c r="EV15" s="19"/>
-      <c r="EW15" s="19"/>
-      <c r="EX15" s="19">
+      <c r="FD15" s="19"/>
+      <c r="FE15" s="19"/>
+      <c r="FF15" s="19">
         <f>1887732/1000</f>
         <v>1887.732</v>
       </c>
-      <c r="EY15" s="19"/>
-      <c r="EZ15" s="19"/>
-      <c r="FA15" s="19">
+      <c r="FG15" s="19"/>
+      <c r="FH15" s="19"/>
+      <c r="FI15" s="19">
         <f>27983/1000</f>
         <v>27.983000000000001</v>
       </c>
-      <c r="FB15" s="19"/>
+      <c r="FJ15" s="19"/>
     </row>
-    <row r="16" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -4451,18 +4570,26 @@
       <c r="AZ16" s="14"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
-      <c r="BC16" s="24"/>
-      <c r="BD16" s="24"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="24"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="23"/>
+      <c r="BO16" s="24"/>
+      <c r="BP16" s="24"/>
+      <c r="BQ16" s="24"/>
+      <c r="BR16" s="24"/>
+      <c r="BS16" s="14"/>
+      <c r="BT16" s="14"/>
     </row>
-    <row r="17" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -4659,18 +4786,32 @@
         <f>1/5*100</f>
         <v>20</v>
       </c>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
+      <c r="BC17" s="14">
+        <v>5889369</v>
+      </c>
+      <c r="BD17" s="14">
+        <v>1862345</v>
+      </c>
+      <c r="BE17" s="14">
+        <v>2060146</v>
+      </c>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="23"/>
+      <c r="BM17" s="23"/>
+      <c r="BN17" s="23"/>
+      <c r="BO17" s="24"/>
+      <c r="BP17" s="24"/>
+      <c r="BQ17" s="24"/>
+      <c r="BR17" s="24"/>
+      <c r="BS17" s="14"/>
+      <c r="BT17" s="14"/>
     </row>
-    <row r="18" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:166" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -4840,802 +4981,899 @@
       <c r="AZ18" s="14"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="24">
+      <c r="BC18" s="14">
+        <v>6492924</v>
+      </c>
+      <c r="BD18" s="14">
+        <v>1952249</v>
+      </c>
+      <c r="BE18" s="14">
+        <v>2005366</v>
+      </c>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="23">
         <v>65699412</v>
       </c>
-      <c r="BD18" s="24">
+      <c r="BL18" s="23">
         <v>1335922.0765555417</v>
       </c>
-      <c r="BE18" s="24">
+      <c r="BM18" s="23">
         <v>55136889.371934704</v>
       </c>
-      <c r="BF18" s="24">
+      <c r="BN18" s="23">
         <v>12142592.704620846</v>
       </c>
-      <c r="BG18" s="25">
-        <f>BC18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BO18" s="24">
+        <f>BK18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2450.5880675999997</v>
       </c>
-      <c r="BH18" s="25">
-        <f>BD18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BP18" s="24">
+        <f>BL18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>49.829893455521713</v>
       </c>
-      <c r="BI18" s="25">
-        <f>BE18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BQ18" s="24">
+        <f>BM18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2056.6059735731646</v>
       </c>
-      <c r="BJ18" s="25">
-        <f>BF18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BR18" s="24">
+        <f>BN18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.91870788235752</v>
       </c>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
+      <c r="BS18" s="14"/>
+      <c r="BT18" s="14"/>
     </row>
-    <row r="19" spans="1:158" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:166" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14">
+        <v>5552551</v>
+      </c>
+      <c r="BD19" s="14">
+        <v>1675964</v>
+      </c>
+      <c r="BE19" s="14">
+        <v>1743192</v>
+      </c>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="24"/>
+      <c r="BP19" s="24"/>
+      <c r="BQ19" s="24"/>
+      <c r="BR19" s="24"/>
+      <c r="BS19" s="14"/>
+      <c r="BT19" s="14"/>
+    </row>
+    <row r="20" spans="1:166" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B20" s="11">
         <f>AVERAGE(B2:B18)</f>
         <v>0.23966117647058821</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <f>AVERAGE(C2:C18)</f>
         <v>0.18933333333333335</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <f>AVERAGE(D2:D18)</f>
         <v>68.092420147533332</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" ref="E19:AZ19" si="29">AVERAGE(E2:E18)</f>
+      <c r="E20" s="11">
+        <f t="shared" ref="E20:AZ20" si="29">AVERAGE(E2:E18)</f>
         <v>64.374399999999994</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f>AVERAGE(F2:F18)</f>
         <v>3.7180201475333332</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <f t="shared" si="29"/>
         <v>0.27175922899999999</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H20" s="11">
         <f t="shared" si="29"/>
         <v>36.399482528333337</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I20" s="11">
         <f t="shared" si="29"/>
         <v>13.3536975952</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J20" s="11">
         <f t="shared" si="29"/>
         <v>13.709595275933333</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K20" s="17">
         <f t="shared" si="29"/>
         <v>53.662396394443569</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L20" s="17">
         <f t="shared" si="29"/>
         <v>20.121101125914585</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M20" s="17">
         <f t="shared" si="29"/>
         <v>19.417674250216255</v>
       </c>
-      <c r="N19" s="17">
-        <f t="shared" ref="N19" si="30">AVERAGE(N2:N18)</f>
+      <c r="N20" s="17">
+        <f t="shared" ref="N20" si="30">AVERAGE(N2:N18)</f>
         <v>39.538775376130843</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O20" s="17">
         <f t="shared" si="29"/>
         <v>5.4547291541230232</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P20" s="11">
         <f t="shared" si="29"/>
         <v>24.309411764705878</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q20" s="11">
         <f>AVERAGE(Q2:Q18)</f>
         <v>4.7164705882352953</v>
       </c>
-      <c r="R19" s="11">
-        <f t="shared" ref="R19:AD19" si="31">AVERAGE(R2:R18)</f>
+      <c r="R20" s="11">
+        <f t="shared" ref="R20:AD20" si="31">AVERAGE(R2:R18)</f>
         <v>1.7823529411764707</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S20" s="11">
         <f t="shared" si="31"/>
         <v>8.2447058823529407</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T20" s="11">
         <f t="shared" si="31"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U20" s="11">
         <f t="shared" si="31"/>
         <v>3.1602235294117644</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V20" s="11">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W20" s="11">
         <f t="shared" si="31"/>
         <v>0.23170588235294121</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X20" s="11">
         <f t="shared" si="31"/>
         <v>1.0718117647058825</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y20" s="11">
         <f t="shared" si="31"/>
         <v>0.34411764705882358</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z20" s="11">
         <f t="shared" si="31"/>
         <v>27.469635294117648</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA20" s="11">
         <f t="shared" si="31"/>
         <v>2.0140588235294121</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AB20" s="11">
         <f t="shared" si="31"/>
         <v>9.3165176470588218</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AC20" s="11">
         <f>AVERAGE(AC2:AC18)</f>
         <v>2.9911764705882353</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AD20" s="11">
         <f t="shared" si="31"/>
         <v>46.507858823529403</v>
       </c>
-      <c r="AE19" s="17">
-        <f t="shared" ref="AE19" si="32">AVERAGE(AE2:AE18)</f>
+      <c r="AE20" s="17">
+        <f t="shared" ref="AE20" si="32">AVERAGE(AE2:AE18)</f>
         <v>6.8979596866944624</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="29"/>
         <v>12.154705882352939</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG20" s="11">
         <f t="shared" si="29"/>
         <v>2.3582352941176477</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH20" s="11">
         <f t="shared" si="29"/>
         <v>0.89117647058823535</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI20" s="11">
         <f>AVERAGE(AI2:AI18)</f>
         <v>4.1223529411764703</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ20" s="11">
         <f t="shared" si="29"/>
         <v>1.3235294117647058</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AK20" s="11">
         <f t="shared" si="29"/>
         <v>20.849999999999994</v>
       </c>
-      <c r="AL19" s="11">
+      <c r="AL20" s="11">
         <f t="shared" si="29"/>
         <v>2.0905484078571428</v>
       </c>
-      <c r="AM19" s="11">
+      <c r="AM20" s="11">
         <f t="shared" si="29"/>
         <v>0.6469714757142857</v>
       </c>
-      <c r="AN19" s="11">
+      <c r="AN20" s="11">
         <f t="shared" si="29"/>
         <v>2.8892456778571431</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AO20" s="11">
         <f>AVERAGE(AO2:AO18)</f>
         <v>5.7780667834392849</v>
       </c>
-      <c r="AP19" s="11">
+      <c r="AP20" s="11">
         <f t="shared" si="29"/>
         <v>342.30730390915801</v>
       </c>
-      <c r="AQ19" s="11">
+      <c r="AQ20" s="11">
         <f t="shared" si="29"/>
         <v>356.45503397150969</v>
       </c>
-      <c r="AR19" s="11">
+      <c r="AR20" s="11">
         <f t="shared" si="29"/>
         <v>17.055685764521638</v>
       </c>
-      <c r="AS19" s="11">
+      <c r="AS20" s="11">
         <f t="shared" si="29"/>
         <v>5.0514232427164805</v>
       </c>
-      <c r="AT19" s="17">
-        <f t="shared" ref="AT19" si="33">AVERAGE(AT2:AT18)</f>
+      <c r="AT20" s="17">
+        <f t="shared" ref="AT20" si="33">AVERAGE(AT2:AT18)</f>
         <v>82.740000000000009</v>
       </c>
-      <c r="AU19" s="17">
+      <c r="AU20" s="17">
         <f t="shared" si="29"/>
         <v>46.76443670774912</v>
       </c>
-      <c r="AV19" s="17">
-        <f t="shared" ref="AV19:AW19" si="34">AVERAGE(AV2:AV18)</f>
+      <c r="AV20" s="17">
+        <f t="shared" ref="AV20:AW20" si="34">AVERAGE(AV2:AV18)</f>
         <v>35.992658125609722</v>
       </c>
-      <c r="AW19" s="17">
+      <c r="AW20" s="17">
         <f t="shared" si="34"/>
         <v>8.1706259547468267</v>
       </c>
-      <c r="AX19" s="11">
+      <c r="AX20" s="11">
         <f t="shared" si="29"/>
         <v>46.5</v>
       </c>
-      <c r="AY19" s="11">
+      <c r="AY20" s="11">
         <f t="shared" si="29"/>
         <v>35.6</v>
       </c>
-      <c r="AZ19" s="11">
+      <c r="AZ20" s="11">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="BA19" s="16"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="26">
-        <f t="shared" ref="BC19:BJ19" si="35">AVERAGE(BC2:BC18)</f>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="11">
+        <f t="shared" ref="BC20" si="35">AVERAGE(BC2:BC18)</f>
+        <v>6191146.5</v>
+      </c>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="25">
+        <f t="shared" ref="BK20:BR20" si="36">AVERAGE(BK2:BK18)</f>
         <v>62276490.149999999</v>
       </c>
-      <c r="BD19" s="26">
-        <f t="shared" si="35"/>
+      <c r="BL20" s="25">
+        <f t="shared" si="36"/>
         <v>2236143.6365082702</v>
       </c>
-      <c r="BE19" s="26">
-        <f t="shared" si="35"/>
+      <c r="BM20" s="25">
+        <f t="shared" si="36"/>
         <v>52726324.132356286</v>
       </c>
-      <c r="BF19" s="26">
-        <f t="shared" si="35"/>
+      <c r="BN20" s="25">
+        <f t="shared" si="36"/>
         <v>12131997.554151986</v>
       </c>
-      <c r="BG19" s="27">
-        <f t="shared" si="35"/>
+      <c r="BO20" s="26">
+        <f t="shared" si="36"/>
         <v>2322.9130825949997</v>
       </c>
-      <c r="BH19" s="27">
-        <f t="shared" si="35"/>
+      <c r="BP20" s="26">
+        <f t="shared" si="36"/>
         <v>83.408157641758464</v>
       </c>
-      <c r="BI19" s="27">
-        <f t="shared" si="35"/>
+      <c r="BQ20" s="26">
+        <f t="shared" si="36"/>
         <v>1966.6918901368899</v>
       </c>
-      <c r="BJ19" s="27">
-        <f t="shared" si="35"/>
+      <c r="BR20" s="26">
+        <f t="shared" si="36"/>
         <v>452.52350876986907</v>
       </c>
-      <c r="BK19" s="16"/>
-      <c r="BL19" s="16"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-      <c r="BO19" s="13"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="13"/>
+      <c r="BV20" s="13"/>
+      <c r="BW20" s="13"/>
     </row>
-    <row r="20" spans="1:158" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:166" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J21" t="s">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>11</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" t="s">
         <v>11</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N21" t="s">
         <v>11</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O21" t="s">
         <v>11</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q21" t="s">
         <v>4</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R21" t="s">
         <v>4</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S21" t="s">
         <v>4</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T21" t="s">
         <v>4</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U21" t="s">
         <v>4</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V21" t="s">
         <v>4</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W21" t="s">
         <v>4</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X21" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y21" t="s">
         <v>11</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z21" t="s">
         <v>11</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA21" t="s">
         <v>11</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB21" t="s">
         <v>11</v>
       </c>
-      <c r="AC20" s="3" t="s">
+      <c r="AC21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AD20" s="3" t="s">
+      <c r="AD21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE20" s="3" t="s">
+      <c r="AE21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF21" t="s">
         <v>11</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG21" t="s">
         <v>11</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH21" t="s">
         <v>11</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AI21" t="s">
         <v>11</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ21" t="s">
         <v>11</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK21" t="s">
         <v>11</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AL21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AM20" s="1" t="s">
+      <c r="AM21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AN21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AO21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AP21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AR20" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AS20" s="1" t="s">
+      <c r="AS21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT20" s="15" t="s">
+      <c r="AT21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AU20" s="15" t="s">
+      <c r="AU21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AV20" s="15" t="s">
+      <c r="AV21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AW20" s="15" t="s">
+      <c r="AW21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AX20" s="15" t="s">
+      <c r="AX21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AY20" s="15" t="s">
+      <c r="AY21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AZ20" s="15" t="s">
+      <c r="AZ21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BA20" s="15" t="s">
+      <c r="BA21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BB20" s="15" t="s">
+      <c r="BB21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BC20" s="20" t="s">
+      <c r="BC21" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD21" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE21" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="BD20" s="20" t="s">
+      <c r="BL21" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="BE20" s="20" t="s">
+      <c r="BM21" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="BF20" s="20" t="s">
+      <c r="BN21" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="15"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="15"/>
-      <c r="BK20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BQ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CA20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CI20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CJ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CU20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CV20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CW20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DB20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DC20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DF20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DG20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DH20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DK20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DO20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EC20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ED20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EH20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EI20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EJ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EK20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EL20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EM20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EO20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EP20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ER20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ES20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ET20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EU20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EW20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EX20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EZ20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA20" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FB20" s="14" t="s">
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="15"/>
+      <c r="BS21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BV21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CA21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CB21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CC21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CD21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CF21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CG21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CH21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CI21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CJ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CK21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CL21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CN21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CO21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CP21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CQ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CR21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CS21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CU21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CV21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CW21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CX21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CY21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DA21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DB21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DC21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DD21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DE21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DF21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DG21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DH21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DK21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DL21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DM21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DN21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DP21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DT21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DW21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DX21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DZ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EB21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EC21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ED21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EE21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EF21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EG21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EH21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EI21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EJ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EK21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EL21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EM21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EN21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EO21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EP21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EQ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ER21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ES21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="ET21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EU21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EV21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EW21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EX21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EY21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FA21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FB21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FC21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FD21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FE21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FF21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FG21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FH21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI21" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="FJ21" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:158" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:166" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U22" t="s">
         <v>18</v>
       </c>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15"/>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-    </row>
-    <row r="22" spans="1:158" x14ac:dyDescent="0.3">
       <c r="AR22" s="14"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
       <c r="AV22" s="15"/>
       <c r="AW22" s="15"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="23"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
       <c r="BE22" s="14"/>
       <c r="BF22" s="14"/>
       <c r="BG22" s="14"/>
@@ -5644,31 +5882,47 @@
       <c r="BJ22" s="14"/>
       <c r="BK22" s="14"/>
       <c r="BL22" s="14"/>
+      <c r="BM22" s="14"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="14"/>
+      <c r="BQ22" s="14"/>
+      <c r="BR22" s="14"/>
+      <c r="BS22" s="14"/>
+      <c r="BT22" s="14"/>
     </row>
-    <row r="23" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:166" x14ac:dyDescent="0.3">
       <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="28"/>
+      <c r="BL23" s="22"/>
+      <c r="BM23" s="14"/>
+      <c r="BN23" s="14"/>
+      <c r="BO23" s="14"/>
+      <c r="BP23" s="14"/>
+      <c r="BQ23" s="14"/>
+      <c r="BR23" s="14"/>
+      <c r="BS23" s="14"/>
+      <c r="BT23" s="14"/>
     </row>
-    <row r="24" spans="1:158" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:166" x14ac:dyDescent="0.3">
       <c r="AR24" s="14"/>
       <c r="AS24" s="14"/>
       <c r="AT24" s="14"/>
@@ -5688,14 +5942,53 @@
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
       <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
+      <c r="BK24" s="29"/>
       <c r="BL24" s="14"/>
+      <c r="BM24" s="14"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="14"/>
+      <c r="BP24" s="14"/>
+      <c r="BQ24" s="14"/>
+      <c r="BR24" s="14"/>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="14"/>
+    </row>
+    <row r="25" spans="1:166" x14ac:dyDescent="0.3">
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
+      <c r="BL25" s="14"/>
+      <c r="BM25" s="14"/>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="14"/>
+      <c r="BP25" s="14"/>
+      <c r="BQ25" s="14"/>
+      <c r="BR25" s="14"/>
+      <c r="BS25" s="14"/>
+      <c r="BT25" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BC20" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
-    <hyperlink ref="BF20" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
-    <hyperlink ref="BE20" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
+    <hyperlink ref="BK21" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
+    <hyperlink ref="BN21" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
+    <hyperlink ref="BM21" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>

--- a/cbrunner/Parameters/Workbook_BCForestSector.xlsx
+++ b/cbrunner/Parameters/Workbook_BCForestSector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D5B6DA-4917-44EF-A4FE-52DACADACBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A838A10-831B-44B4-963D-2D1DC4FE1A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="12" windowWidth="22092" windowHeight="7680" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="14400" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -672,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -751,12 +752,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -802,9 +797,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -842,7 +837,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -948,7 +943,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1101,10 +1096,10 @@
   <dimension ref="A1:FJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AY14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE21" sqref="BE21"/>
+      <selection pane="bottomRight" activeCell="BE24" sqref="BE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5160,7 +5155,7 @@
         <v>19.417674250216255</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" ref="N20" si="30">AVERAGE(N2:N18)</f>
+        <f>AVERAGE(N2:N18)</f>
         <v>39.538775376130843</v>
       </c>
       <c r="O20" s="17">
@@ -5176,47 +5171,47 @@
         <v>4.7164705882352953</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20:AD20" si="31">AVERAGE(R2:R18)</f>
+        <f t="shared" ref="R20:AD20" si="30">AVERAGE(R2:R18)</f>
         <v>1.7823529411764707</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>8.2447058823529407</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2.6470588235294117</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>3.1602235294117644</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.23170588235294121</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1.0718117647058825</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.34411764705882358</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>27.469635294117648</v>
       </c>
       <c r="AA20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2.0140588235294121</v>
       </c>
       <c r="AB20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>9.3165176470588218</v>
       </c>
       <c r="AC20" s="11">
@@ -5224,11 +5219,11 @@
         <v>2.9911764705882353</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>46.507858823529403</v>
       </c>
       <c r="AE20" s="17">
-        <f t="shared" ref="AE20" si="32">AVERAGE(AE2:AE18)</f>
+        <f>AVERAGE(AE2:AE18)</f>
         <v>6.8979596866944624</v>
       </c>
       <c r="AF20" s="11">
@@ -5288,7 +5283,7 @@
         <v>5.0514232427164805</v>
       </c>
       <c r="AT20" s="17">
-        <f t="shared" ref="AT20" si="33">AVERAGE(AT2:AT18)</f>
+        <f>AVERAGE(AT2:AT18)</f>
         <v>82.740000000000009</v>
       </c>
       <c r="AU20" s="17">
@@ -5296,11 +5291,11 @@
         <v>46.76443670774912</v>
       </c>
       <c r="AV20" s="17">
-        <f t="shared" ref="AV20:AW20" si="34">AVERAGE(AV2:AV18)</f>
+        <f>AVERAGE(AV2:AV18)</f>
         <v>35.992658125609722</v>
       </c>
       <c r="AW20" s="17">
-        <f t="shared" si="34"/>
+        <f>AVERAGE(AW2:AW18)</f>
         <v>8.1706259547468267</v>
       </c>
       <c r="AX20" s="11">
@@ -5318,7 +5313,7 @@
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
       <c r="BC20" s="11">
-        <f t="shared" ref="BC20" si="35">AVERAGE(BC2:BC18)</f>
+        <f>AVERAGE(BC2:BC18)</f>
         <v>6191146.5</v>
       </c>
       <c r="BD20" s="16"/>
@@ -5329,35 +5324,35 @@
       <c r="BI20" s="16"/>
       <c r="BJ20" s="16"/>
       <c r="BK20" s="25">
-        <f t="shared" ref="BK20:BR20" si="36">AVERAGE(BK2:BK18)</f>
+        <f t="shared" ref="BK20:BR20" si="31">AVERAGE(BK2:BK18)</f>
         <v>62276490.149999999</v>
       </c>
       <c r="BL20" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>2236143.6365082702</v>
       </c>
       <c r="BM20" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>52726324.132356286</v>
       </c>
       <c r="BN20" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>12131997.554151986</v>
       </c>
       <c r="BO20" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>2322.9130825949997</v>
       </c>
       <c r="BP20" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>83.408157641758464</v>
       </c>
       <c r="BQ20" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>1966.6918901368899</v>
       </c>
       <c r="BR20" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="31"/>
         <v>452.52350876986907</v>
       </c>
       <c r="BS20" s="16"/>
@@ -5911,7 +5906,7 @@
       <c r="BH23" s="21"/>
       <c r="BI23" s="21"/>
       <c r="BJ23" s="21"/>
-      <c r="BK23" s="28"/>
+      <c r="BK23" s="21"/>
       <c r="BL23" s="22"/>
       <c r="BM23" s="14"/>
       <c r="BN23" s="14"/>
@@ -5942,7 +5937,7 @@
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
       <c r="BJ24" s="14"/>
-      <c r="BK24" s="29"/>
+      <c r="BK24" s="14"/>
       <c r="BL24" s="14"/>
       <c r="BM24" s="14"/>
       <c r="BN24" s="14"/>

--- a/cbrunner/Parameters/Workbook_BCForestSector.xlsx
+++ b/cbrunner/Parameters/Workbook_BCForestSector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A838A10-831B-44B4-963D-2D1DC4FE1A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6FE19C-3E58-451C-9555-E2CEC49542D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="14400" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
   <si>
     <t>Year</t>
   </si>
@@ -132,12 +131,6 @@
     <t>Forest Non-sawlog to Chipper (%)</t>
   </si>
   <si>
-    <t>Production Petroleum US (PJ/yr)</t>
-  </si>
-  <si>
-    <t>Production Petroleum CA (PJ/yr)</t>
-  </si>
-  <si>
     <t>Production Petroleum NA (PJ/yr)</t>
   </si>
   <si>
@@ -195,12 +188,6 @@
     <t>Production Biofuels and Waste NA (PJ/yr)</t>
   </si>
   <si>
-    <t>Import Petroleum US (PJ/yr)</t>
-  </si>
-  <si>
-    <t>Import Petroleum CA (PJ/yr)</t>
-  </si>
-  <si>
     <t>Import Petroleum NA (PJ/yr)</t>
   </si>
   <si>
@@ -267,12 +254,6 @@
     <t>Import Electricity NA (PJ/yr)</t>
   </si>
   <si>
-    <t>Export Petroleum US (PJ/yr)</t>
-  </si>
-  <si>
-    <t>Export Petroleum CA (PJ/yr)</t>
-  </si>
-  <si>
     <t>Export Petroleum NA (PJ/yr)</t>
   </si>
   <si>
@@ -339,12 +320,6 @@
     <t>Export Electricity NA (PJ/yr)</t>
   </si>
   <si>
-    <t>Consumption Petroleum US (PJ/yr)</t>
-  </si>
-  <si>
-    <t>Consumption Petroleum CA (PJ/yr)</t>
-  </si>
-  <si>
     <t>Consumption Petroleum NA (PJ/yr)</t>
   </si>
   <si>
@@ -411,12 +386,6 @@
     <t>Consumption Electricity NA (PJ/yr)</t>
   </si>
   <si>
-    <t>Consumption Heat US (PJ/yr)</t>
-  </si>
-  <si>
-    <t>Consumption Heat CA (PJ/yr)</t>
-  </si>
-  <si>
     <t>Consumption Heat NA (PJ/yr)</t>
   </si>
   <si>
@@ -580,6 +549,60 @@
   </si>
   <si>
     <t>Production Electricity Pulping Liquor BC (MWh)</t>
+  </si>
+  <si>
+    <t>Production Electricity US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum Products CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum Products CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum Products CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum Products CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum Products US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum Products US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum Products US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum Products US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum Crude US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum Crude US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum Crude US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum Crude US (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Crude Petroleum CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Import Petroleum Crude CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Export Petroleum Crude CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Petroleum Crude CA (PJ/yr)</t>
   </si>
 </sst>
 </file>
@@ -634,7 +657,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +682,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -673,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -752,6 +781,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -789,8 +824,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1093,13 +1128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B68DB-5605-4152-9FD3-1C1553CFC20E}">
-  <dimension ref="A1:FJ25"/>
+  <dimension ref="A1:FO28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AX2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE24" sqref="BE24"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,12 +1154,18 @@
     <col min="44" max="44" width="11.33203125" style="1" customWidth="1"/>
     <col min="45" max="52" width="8.88671875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="70" width="11.6640625" style="1" customWidth="1"/>
-    <col min="71" max="75" width="10.44140625" style="1" customWidth="1"/>
-    <col min="76" max="180" width="10.44140625" customWidth="1"/>
+    <col min="54" max="65" width="11.6640625" style="1" customWidth="1"/>
+    <col min="66" max="69" width="10.44140625" style="1" customWidth="1"/>
+    <col min="70" max="72" width="10.44140625" customWidth="1"/>
+    <col min="73" max="74" width="11.77734375" customWidth="1"/>
+    <col min="75" max="101" width="10.44140625" customWidth="1"/>
+    <col min="102" max="104" width="10.44140625" style="1" customWidth="1"/>
+    <col min="105" max="137" width="10.44140625" customWidth="1"/>
+    <col min="138" max="138" width="10.44140625" style="1" customWidth="1"/>
+    <col min="139" max="185" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:171" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,106 +1176,106 @@
         <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="AL1" s="5" t="s">
         <v>7</v>
@@ -1249,16 +1290,16 @@
         <v>12</v>
       </c>
       <c r="AP1" s="9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AQ1" s="9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AR1" s="9" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AS1" s="9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AT1" s="6" t="s">
         <v>26</v>
@@ -1288,333 +1329,358 @@
         <v>24</v>
       </c>
       <c r="BC1" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD1" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE1" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG1" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH1" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI1" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="BL1" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM1" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN1" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO1" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="BP1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="BQ1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BR1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV1" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW1" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="BX1" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BY1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BZ1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="CB1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="CF1" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="CG1" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="CH1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="CJ1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="CL1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="CM1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="CP1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="27" t="s">
+      <c r="CQ1" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="CT1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV1" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="CW1" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="CX1" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="CY1" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="BL1" s="27" t="s">
+      <c r="CZ1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="DA1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="DB1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="DD1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="DE1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="DF1" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG1" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="DH1" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="DI1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="DJ1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="DK1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="DL1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="DN1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="DP1" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="DQ1" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="BN1" s="27" t="s">
+      <c r="DR1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="DS1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="DT1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="DU1" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="DV1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="DW1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="DX1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="DY1" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="DZ1" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="BO1" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="BP1" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS1" s="4" t="s">
+      <c r="EA1" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="EB1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="EC1" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="ED1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="EE1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="EF1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="EH1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BT1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BV1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BW1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BZ1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="CC1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="CF1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="CI1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="CM1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="CN1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="CP1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="CR1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="CS1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="CT1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU1" s="4" t="s">
+      <c r="ER1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="CV1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="CW1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="CX1" s="4" t="s">
+      <c r="ES1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="CY1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="CZ1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="DA1" s="4" t="s">
+      <c r="ET1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="DB1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="DC1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="DD1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="DE1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="DF1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="DG1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="DI1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="DK1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="DL1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="DN1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="DO1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="DP1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="DR1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="DS1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="DU1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="DV1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="FD1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="DX1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="DY1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="FE1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="EA1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="EB1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="EC1" s="4" t="s">
+      <c r="FF1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="FG1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="EE1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="EF1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="EG1" s="4" t="s">
+      <c r="FH1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="EH1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="FI1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="EK1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="EM1" s="4" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="EN1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="EO1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="EP1" s="4" t="s">
+      <c r="FK1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="EQ1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="ER1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="ES1" s="4" t="s">
+      <c r="FL1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="ET1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="EU1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="EV1" s="4" t="s">
+      <c r="FM1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="EW1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="EX1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FN1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FO1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="FA1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="FB1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="FC1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="FD1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="FE1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="FF1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="FG1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="FH1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="FI1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="FJ1" s="4" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -1710,16 +1776,17 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="24"/>
-      <c r="BP2" s="24"/>
-      <c r="BQ2" s="24"/>
-      <c r="BR2" s="24"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BQ2"/>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -1815,16 +1882,17 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="24"/>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BQ3"/>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -2000,23 +2068,21 @@
       <c r="BC4" s="14"/>
       <c r="BD4" s="14"/>
       <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BI4" s="14"/>
-      <c r="BJ4" s="14"/>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23"/>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="24"/>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="24"/>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BQ4"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -2194,23 +2260,21 @@
       <c r="BC5" s="14"/>
       <c r="BD5" s="14"/>
       <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="23"/>
-      <c r="BL5" s="23"/>
-      <c r="BM5" s="23"/>
-      <c r="BN5" s="23"/>
-      <c r="BO5" s="24"/>
-      <c r="BP5" s="24"/>
-      <c r="BQ5" s="24"/>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="14"/>
-      <c r="BT5" s="14"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="24"/>
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="14"/>
+      <c r="BQ5"/>
+      <c r="CX5" s="14"/>
+      <c r="CY5" s="14"/>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -2388,23 +2452,21 @@
       <c r="BC6" s="14"/>
       <c r="BD6" s="14"/>
       <c r="BE6" s="14"/>
-      <c r="BF6" s="14"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="24"/>
-      <c r="BR6" s="24"/>
-      <c r="BS6" s="14"/>
-      <c r="BT6" s="14"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="14"/>
+      <c r="BO6" s="14"/>
+      <c r="BQ6"/>
+      <c r="CX6" s="14"/>
+      <c r="CY6" s="14"/>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -2582,23 +2644,21 @@
       <c r="BC7" s="14"/>
       <c r="BD7" s="14"/>
       <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="23"/>
-      <c r="BL7" s="23"/>
-      <c r="BM7" s="23"/>
-      <c r="BN7" s="23"/>
-      <c r="BO7" s="24"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="14"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="24"/>
+      <c r="BK7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="24"/>
+      <c r="BN7" s="14"/>
+      <c r="BO7" s="14"/>
+      <c r="BQ7"/>
+      <c r="CX7" s="14"/>
+      <c r="CY7" s="14"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -2776,23 +2836,21 @@
       <c r="BC8" s="14"/>
       <c r="BD8" s="14"/>
       <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="23"/>
-      <c r="BL8" s="23"/>
-      <c r="BM8" s="23"/>
-      <c r="BN8" s="23"/>
-      <c r="BO8" s="24"/>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+      <c r="BK8" s="24"/>
+      <c r="BL8" s="24"/>
+      <c r="BM8" s="24"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BQ8"/>
+      <c r="CX8" s="14"/>
+      <c r="CY8" s="14"/>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -2970,23 +3028,21 @@
       <c r="BC9" s="14"/>
       <c r="BD9" s="14"/>
       <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="14"/>
+      <c r="BQ9"/>
+      <c r="CX9" s="14"/>
+      <c r="CY9" s="14"/>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -3164,23 +3220,21 @@
       <c r="BC10" s="14"/>
       <c r="BD10" s="14"/>
       <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
-      <c r="BK10" s="23"/>
-      <c r="BL10" s="23"/>
-      <c r="BM10" s="23"/>
-      <c r="BN10" s="23"/>
-      <c r="BO10" s="24"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="14"/>
-      <c r="BT10" s="14"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="24"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BQ10"/>
+      <c r="CX10" s="14"/>
+      <c r="CY10" s="14"/>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -3358,23 +3412,21 @@
       <c r="BC11" s="14"/>
       <c r="BD11" s="14"/>
       <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
-      <c r="BN11" s="23"/>
-      <c r="BO11" s="24"/>
-      <c r="BP11" s="24"/>
-      <c r="BQ11" s="24"/>
-      <c r="BR11" s="24"/>
-      <c r="BS11" s="14"/>
-      <c r="BT11" s="14"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="24"/>
+      <c r="BK11" s="24"/>
+      <c r="BL11" s="24"/>
+      <c r="BM11" s="24"/>
+      <c r="BN11" s="14"/>
+      <c r="BO11" s="14"/>
+      <c r="BQ11"/>
+      <c r="CX11" s="14"/>
+      <c r="CY11" s="14"/>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -3562,23 +3614,21 @@
       <c r="BC12" s="14"/>
       <c r="BD12" s="14"/>
       <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
-      <c r="BO12" s="24"/>
-      <c r="BP12" s="24"/>
-      <c r="BQ12" s="24"/>
-      <c r="BR12" s="24"/>
-      <c r="BS12" s="14"/>
-      <c r="BT12" s="14"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="24"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BQ12"/>
+      <c r="CX12" s="14"/>
+      <c r="CY12" s="14"/>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -3757,23 +3807,21 @@
       <c r="BC13" s="14"/>
       <c r="BD13" s="14"/>
       <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="23"/>
-      <c r="BM13" s="23"/>
-      <c r="BN13" s="23"/>
-      <c r="BO13" s="24"/>
-      <c r="BP13" s="24"/>
-      <c r="BQ13" s="24"/>
-      <c r="BR13" s="24"/>
-      <c r="BS13" s="14"/>
-      <c r="BT13" s="14"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
+      <c r="BM13" s="24"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BQ13"/>
+      <c r="CX13" s="14"/>
+      <c r="CY13" s="14"/>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -3961,23 +4009,21 @@
       <c r="BC14" s="14"/>
       <c r="BD14" s="14"/>
       <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
-      <c r="BO14" s="24"/>
-      <c r="BP14" s="24"/>
-      <c r="BQ14" s="24"/>
-      <c r="BR14" s="24"/>
-      <c r="BS14" s="14"/>
-      <c r="BT14" s="14"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="24"/>
+      <c r="BK14" s="24"/>
+      <c r="BL14" s="24"/>
+      <c r="BM14" s="24"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BQ14"/>
+      <c r="CX14" s="14"/>
+      <c r="CY14" s="14"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -4165,222 +4211,323 @@
       <c r="BC15" s="14"/>
       <c r="BD15" s="14"/>
       <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="23">
+      <c r="BF15" s="23">
         <v>58853568.299999997</v>
       </c>
-      <c r="BL15" s="23">
+      <c r="BG15" s="23">
         <v>3136365.1964609982</v>
       </c>
-      <c r="BM15" s="23">
+      <c r="BH15" s="23">
         <v>50315758.892777875</v>
       </c>
-      <c r="BN15" s="23">
+      <c r="BI15" s="23">
         <v>12121402.403683126</v>
       </c>
-      <c r="BO15" s="24">
-        <f>BK15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BJ15" s="24">
+        <f>BF15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2195.2380975900001</v>
       </c>
-      <c r="BP15" s="24">
-        <f>BL15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BK15" s="24">
+        <f>BG15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>116.98642182799523</v>
       </c>
-      <c r="BQ15" s="24">
-        <f>BM15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BL15" s="24">
+        <f>BH15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>1876.777806700615</v>
       </c>
-      <c r="BR15" s="24">
-        <f>BN15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BM15" s="24">
+        <f>BI15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.12830965738067</v>
       </c>
-      <c r="BS15" s="19">
+      <c r="BN15" s="19">
         <f>28686634/1000</f>
         <v>28686.633999999998</v>
       </c>
+      <c r="BO15" s="19">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="19">
+        <f>29489845/1000</f>
+        <v>29489.845000000001</v>
+      </c>
+      <c r="BQ15" s="19">
+        <f>15448717/1000</f>
+        <v>15448.717000000001</v>
+      </c>
+      <c r="BR15" s="19">
+        <v>9178.1299999999992</v>
+      </c>
+      <c r="BS15" s="19">
+        <v>1841.81</v>
+      </c>
       <c r="BT15" s="19">
+        <v>1063.8</v>
+      </c>
+      <c r="BU15" s="19">
+        <v>4483.7489999999998</v>
+      </c>
+      <c r="BV15" s="19">
+        <v>160.041</v>
+      </c>
+      <c r="BW15" s="19">
+        <v>18082.736000000001</v>
+      </c>
+      <c r="BX15" s="19">
+        <v>3194.373</v>
+      </c>
+      <c r="BY15" s="19">
+        <v>2794.7489999999998</v>
+      </c>
+      <c r="BZ15" s="19">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="CA15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="19">
+        <v>52.42</v>
+      </c>
+      <c r="CD15" s="19">
+        <v>209.738</v>
+      </c>
+      <c r="CE15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="19">
+        <v>-5241.9660000000003</v>
+      </c>
+      <c r="CG15" s="19">
+        <v>-9263.36</v>
+      </c>
+      <c r="CH15" s="19">
+        <v>-3548.89</v>
+      </c>
+      <c r="CI15" s="19">
+        <v>-2871.261</v>
+      </c>
+      <c r="CJ15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CL15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="19">
+        <v>-160.36099999999999</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>-49.695999999999998</v>
+      </c>
+      <c r="CO15" s="19">
+        <f>BN15+BW15+CF15</f>
+        <v>41527.403999999995</v>
+      </c>
+      <c r="CP15" s="19">
+        <f>BO15+BX15+CG15</f>
+        <v>-6068.987000000001</v>
+      </c>
+      <c r="CQ15" s="19">
+        <f>BP15+BY15+CH15</f>
+        <v>28735.704000000002</v>
+      </c>
+      <c r="CR15" s="19">
+        <f>BQ15+BZ15+CI15</f>
+        <v>12708.255999999999</v>
+      </c>
+      <c r="CS15" s="19">
+        <f>BR15+CA15+CJ15</f>
+        <v>9178.1299999999992</v>
+      </c>
+      <c r="CT15" s="19">
+        <f>BS15+CB15+CK15</f>
+        <v>1841.81</v>
+      </c>
+      <c r="CU15" s="19">
+        <f>BT15+CC15+CL15</f>
+        <v>1116.22</v>
+      </c>
+      <c r="CV15" s="19">
+        <f>BU15+CD15+CM15</f>
+        <v>4533.1260000000002</v>
+      </c>
+      <c r="CW15" s="19">
+        <f>BV15+CE15+CN15</f>
+        <v>110.345</v>
+      </c>
+      <c r="CX15" s="19">
         <f>11187524/1000</f>
         <v>11187.523999999999</v>
       </c>
-      <c r="BU15" s="19"/>
-      <c r="BV15" s="19">
-        <f>29489845/1000</f>
-        <v>29489.845000000001</v>
-      </c>
-      <c r="BW15" s="19">
+      <c r="CY15" s="19">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="19">
         <f>6910494/1000</f>
         <v>6910.4939999999997</v>
       </c>
-      <c r="BX15" s="19"/>
-      <c r="BY15" s="19">
-        <f>15448717/1000</f>
-        <v>15448.717000000001</v>
-      </c>
-      <c r="BZ15" s="19">
+      <c r="DA15" s="19">
         <f>1220266/1000</f>
         <v>1220.2660000000001</v>
       </c>
-      <c r="CA15" s="19"/>
-      <c r="CB15" s="19"/>
-      <c r="CC15" s="19">
+      <c r="DB15" s="19">
         <f>1098884/1000</f>
         <v>1098.884</v>
       </c>
-      <c r="CD15" s="19"/>
-      <c r="CE15" s="19"/>
-      <c r="CF15" s="19">
+      <c r="DC15" s="19">
         <f>135006/1000</f>
         <v>135.006</v>
       </c>
-      <c r="CG15" s="19"/>
-      <c r="CH15" s="19"/>
-      <c r="CI15" s="19">
+      <c r="DD15" s="19">
         <f>1389024/1000</f>
         <v>1389.0239999999999</v>
       </c>
-      <c r="CJ15" s="19"/>
-      <c r="CK15" s="19"/>
-      <c r="CL15" s="19">
+      <c r="DE15" s="19">
         <f>573230/1000</f>
         <v>573.23</v>
       </c>
-      <c r="CM15" s="19"/>
-      <c r="CN15" s="19"/>
-      <c r="CO15" s="19">
-        <f>(1826699+565516)/1000</f>
-        <v>2392.2150000000001</v>
-      </c>
-      <c r="CP15" s="19"/>
-      <c r="CQ15" s="19"/>
-      <c r="CR15" s="19">
+      <c r="DF15" s="19">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="19">
+        <v>229.53200000000001</v>
+      </c>
+      <c r="DH15" s="19">
+        <v>565.51599999999996</v>
+      </c>
+      <c r="DI15" s="19">
         <f>818032/1000</f>
         <v>818.03200000000004</v>
       </c>
-      <c r="CS15" s="19"/>
-      <c r="CT15" s="19"/>
-      <c r="CU15" s="19">
+      <c r="DJ15" s="19">
         <f>229533/1000</f>
         <v>229.53299999999999</v>
       </c>
-      <c r="CV15" s="19"/>
-      <c r="CW15" s="19"/>
-      <c r="CX15" s="19">
+      <c r="DK15" s="19">
         <v>0</v>
       </c>
-      <c r="CY15" s="19"/>
-      <c r="CZ15" s="19"/>
-      <c r="DA15" s="19"/>
-      <c r="DB15" s="19"/>
-      <c r="DC15" s="19"/>
-      <c r="DD15" s="19">
+      <c r="DL15" s="19">
         <v>0</v>
       </c>
-      <c r="DE15" s="19"/>
-      <c r="DF15" s="19"/>
-      <c r="DG15" s="19">
+      <c r="DM15" s="19">
+        <v>0</v>
+      </c>
+      <c r="DN15" s="19">
         <f>55557/1000</f>
         <v>55.557000000000002</v>
       </c>
-      <c r="DH15" s="19"/>
-      <c r="DI15" s="19"/>
-      <c r="DJ15" s="19">
+      <c r="DO15" s="19">
         <f>47502/1000</f>
         <v>47.502000000000002</v>
       </c>
-      <c r="DK15" s="19"/>
-      <c r="DL15" s="19"/>
-      <c r="DM15" s="19">
+      <c r="DP15" s="19">
         <f>(-8212260-928790)/1000</f>
         <v>-9141.0499999999993</v>
       </c>
-      <c r="DN15" s="19"/>
-      <c r="DO15" s="19"/>
-      <c r="DP15" s="19">
+      <c r="DQ15" s="19">
+        <v>-928.78899999999999</v>
+      </c>
+      <c r="DR15" s="19">
         <f>-2815765/1000</f>
         <v>-2815.7649999999999</v>
       </c>
-      <c r="DQ15" s="19"/>
-      <c r="DR15" s="19"/>
       <c r="DS15" s="19">
         <f>-801916/1000</f>
         <v>-801.91600000000005</v>
       </c>
-      <c r="DT15" s="19"/>
-      <c r="DU15" s="19"/>
-      <c r="DV15" s="19"/>
-      <c r="DW15" s="19"/>
-      <c r="DX15" s="19"/>
-      <c r="DY15" s="19"/>
-      <c r="DZ15" s="19"/>
-      <c r="EA15" s="19"/>
-      <c r="EB15" s="19"/>
-      <c r="EC15" s="19"/>
-      <c r="ED15" s="19"/>
-      <c r="EE15" s="19">
+      <c r="DT15" s="19">
+        <v>0</v>
+      </c>
+      <c r="DU15" s="19">
+        <v>0</v>
+      </c>
+      <c r="DV15" s="19">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="19">
         <f>-58476/1000</f>
         <v>-58.475999999999999</v>
       </c>
-      <c r="EF15" s="19"/>
-      <c r="EG15" s="19"/>
-      <c r="EH15" s="19">
+      <c r="DX15" s="19">
         <f>-221044/1000</f>
         <v>-221.04400000000001</v>
       </c>
+      <c r="DY15" s="19">
+        <f>CX15+DG15+DP15</f>
+        <v>2276.0059999999994</v>
+      </c>
+      <c r="DZ15" s="19">
+        <f>CY15+DH15+DQ15</f>
+        <v>-363.27300000000002</v>
+      </c>
+      <c r="EA15" s="19">
+        <f>CZ15+DI15+DR15</f>
+        <v>4912.7610000000004</v>
+      </c>
+      <c r="EB15" s="19">
+        <f>DA15+DJ15+DS15</f>
+        <v>647.88299999999992</v>
+      </c>
+      <c r="EC15" s="19">
+        <f>DB15+DK15+DT15</f>
+        <v>1098.884</v>
+      </c>
+      <c r="ED15" s="19">
+        <f>DC15+DL15+DU15</f>
+        <v>135.006</v>
+      </c>
+      <c r="EE15" s="19">
+        <f>DD15+DM15+DV15</f>
+        <v>1389.0239999999999</v>
+      </c>
+      <c r="EF15" s="19">
+        <f>DE15+DN15+DW15</f>
+        <v>570.31100000000004</v>
+      </c>
+      <c r="EG15" s="19">
+        <f>DF15+DO15+DX15</f>
+        <v>-173.542</v>
+      </c>
+      <c r="EH15" s="19"/>
       <c r="EI15" s="19"/>
       <c r="EJ15" s="19"/>
-      <c r="EK15" s="19">
-        <f>3968290/1000</f>
-        <v>3968.29</v>
-      </c>
+      <c r="EK15" s="19"/>
       <c r="EL15" s="19"/>
       <c r="EM15" s="19"/>
-      <c r="EN15" s="19">
-        <f>2215958/1000</f>
-        <v>2215.9580000000001</v>
-      </c>
+      <c r="EN15" s="19"/>
       <c r="EO15" s="19"/>
       <c r="EP15" s="19"/>
-      <c r="EQ15" s="19">
-        <f>113104/1000</f>
-        <v>113.104</v>
-      </c>
+      <c r="EQ15" s="19"/>
       <c r="ER15" s="19"/>
       <c r="ES15" s="19"/>
       <c r="ET15" s="19"/>
       <c r="EU15" s="19"/>
       <c r="EV15" s="19"/>
-      <c r="EW15" s="19">
-        <f>1810/1000</f>
-        <v>1.81</v>
-      </c>
+      <c r="EW15" s="19"/>
       <c r="EX15" s="19"/>
       <c r="EY15" s="19"/>
       <c r="EZ15" s="19"/>
       <c r="FA15" s="19"/>
       <c r="FB15" s="19"/>
-      <c r="FC15" s="19">
-        <f>457842/1000</f>
-        <v>457.84199999999998</v>
-      </c>
+      <c r="FC15" s="19"/>
       <c r="FD15" s="19"/>
       <c r="FE15" s="19"/>
-      <c r="FF15" s="19">
-        <f>1887732/1000</f>
-        <v>1887.732</v>
-      </c>
+      <c r="FF15" s="19"/>
       <c r="FG15" s="19"/>
       <c r="FH15" s="19"/>
-      <c r="FI15" s="19">
-        <f>27983/1000</f>
-        <v>27.983000000000001</v>
-      </c>
+      <c r="FI15" s="19"/>
       <c r="FJ15" s="19"/>
+      <c r="FK15" s="19"/>
+      <c r="FL15" s="19"/>
+      <c r="FM15" s="19"/>
+      <c r="FN15" s="19"/>
+      <c r="FO15" s="19"/>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -4568,23 +4715,19 @@
       <c r="BC16" s="14"/>
       <c r="BD16" s="14"/>
       <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="23"/>
-      <c r="BL16" s="23"/>
-      <c r="BM16" s="23"/>
-      <c r="BN16" s="23"/>
-      <c r="BO16" s="24"/>
-      <c r="BP16" s="24"/>
-      <c r="BQ16" s="24"/>
-      <c r="BR16" s="24"/>
-      <c r="BS16" s="14"/>
-      <c r="BT16" s="14"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="24"/>
+      <c r="BK16" s="24"/>
+      <c r="BL16" s="24"/>
+      <c r="BM16" s="24"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="14"/>
+      <c r="BQ16"/>
     </row>
-    <row r="17" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -4790,23 +4933,19 @@
       <c r="BE17" s="14">
         <v>2060146</v>
       </c>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="23"/>
-      <c r="BL17" s="23"/>
-      <c r="BM17" s="23"/>
-      <c r="BN17" s="23"/>
-      <c r="BO17" s="24"/>
-      <c r="BP17" s="24"/>
-      <c r="BQ17" s="24"/>
-      <c r="BR17" s="24"/>
-      <c r="BS17" s="14"/>
-      <c r="BT17" s="14"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="14"/>
+      <c r="BO17" s="14"/>
+      <c r="BQ17"/>
     </row>
-    <row r="18" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -4985,43 +5124,41 @@
       <c r="BE18" s="14">
         <v>2005366</v>
       </c>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="23">
+      <c r="BF18" s="23">
         <v>65699412</v>
       </c>
-      <c r="BL18" s="23">
+      <c r="BG18" s="23">
         <v>1335922.0765555417</v>
       </c>
-      <c r="BM18" s="23">
+      <c r="BH18" s="23">
         <v>55136889.371934704</v>
       </c>
-      <c r="BN18" s="23">
+      <c r="BI18" s="23">
         <v>12142592.704620846</v>
       </c>
-      <c r="BO18" s="24">
-        <f>BK18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BJ18" s="24">
+        <f>BF18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2450.5880675999997</v>
       </c>
-      <c r="BP18" s="24">
-        <f>BL18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BK18" s="24">
+        <f>BG18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>49.829893455521713</v>
       </c>
-      <c r="BQ18" s="24">
-        <f>BM18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BL18" s="24">
+        <f>BH18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>2056.6059735731646</v>
       </c>
-      <c r="BR18" s="24">
-        <f>BN18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="BM18" s="24">
+        <f>BI18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.91870788235752</v>
       </c>
-      <c r="BS18" s="14"/>
-      <c r="BT18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BQ18"/>
+      <c r="CX18" s="14"/>
+      <c r="CY18" s="14"/>
     </row>
-    <row r="19" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -5086,854 +5223,883 @@
       <c r="BE19" s="14">
         <v>1743192</v>
       </c>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="14"/>
-      <c r="BK19" s="23"/>
-      <c r="BL19" s="23"/>
-      <c r="BM19" s="23"/>
-      <c r="BN19" s="23"/>
-      <c r="BO19" s="24"/>
-      <c r="BP19" s="24"/>
-      <c r="BQ19" s="24"/>
-      <c r="BR19" s="24"/>
-      <c r="BS19" s="14"/>
-      <c r="BT19" s="14"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="24"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BQ19"/>
+      <c r="CX19" s="14"/>
+      <c r="CY19" s="14"/>
     </row>
-    <row r="20" spans="1:166" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="24"/>
+      <c r="BK20" s="24"/>
+      <c r="BL20" s="24"/>
+      <c r="BM20" s="24"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BQ20"/>
+      <c r="CX20" s="14"/>
+      <c r="CY20" s="14"/>
+    </row>
+    <row r="21" spans="1:171" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B21" s="11">
         <f>AVERAGE(B2:B18)</f>
         <v>0.23966117647058821</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <f>AVERAGE(C2:C18)</f>
         <v>0.18933333333333335</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <f>AVERAGE(D2:D18)</f>
         <v>68.092420147533332</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" ref="E20:AZ20" si="29">AVERAGE(E2:E18)</f>
+      <c r="E21" s="11">
+        <f t="shared" ref="E21:AZ21" si="29">AVERAGE(E2:E18)</f>
         <v>64.374399999999994</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <f>AVERAGE(F2:F18)</f>
         <v>3.7180201475333332</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <f t="shared" si="29"/>
         <v>0.27175922899999999</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <f t="shared" si="29"/>
         <v>36.399482528333337</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <f t="shared" si="29"/>
         <v>13.3536975952</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <f t="shared" si="29"/>
         <v>13.709595275933333</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K21" s="17">
         <f t="shared" si="29"/>
         <v>53.662396394443569</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L21" s="17">
         <f t="shared" si="29"/>
         <v>20.121101125914585</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="17">
         <f t="shared" si="29"/>
         <v>19.417674250216255</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N21" s="17">
         <f>AVERAGE(N2:N18)</f>
         <v>39.538775376130843</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="17">
         <f t="shared" si="29"/>
         <v>5.4547291541230232</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P21" s="11">
         <f t="shared" si="29"/>
         <v>24.309411764705878</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q21" s="11">
         <f>AVERAGE(Q2:Q18)</f>
         <v>4.7164705882352953</v>
       </c>
-      <c r="R20" s="11">
-        <f t="shared" ref="R20:AD20" si="30">AVERAGE(R2:R18)</f>
+      <c r="R21" s="11">
+        <f t="shared" ref="R21:AD21" si="30">AVERAGE(R2:R18)</f>
         <v>1.7823529411764707</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S21" s="11">
         <f t="shared" si="30"/>
         <v>8.2447058823529407</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T21" s="11">
         <f t="shared" si="30"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U21" s="11">
         <f t="shared" si="30"/>
         <v>3.1602235294117644</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V21" s="11">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W21" s="11">
         <f t="shared" si="30"/>
         <v>0.23170588235294121</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X21" s="11">
         <f t="shared" si="30"/>
         <v>1.0718117647058825</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y21" s="11">
         <f t="shared" si="30"/>
         <v>0.34411764705882358</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z21" s="11">
         <f t="shared" si="30"/>
         <v>27.469635294117648</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA21" s="11">
         <f t="shared" si="30"/>
         <v>2.0140588235294121</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB21" s="11">
         <f t="shared" si="30"/>
         <v>9.3165176470588218</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AC21" s="11">
         <f>AVERAGE(AC2:AC18)</f>
         <v>2.9911764705882353</v>
       </c>
-      <c r="AD20" s="11">
+      <c r="AD21" s="11">
         <f t="shared" si="30"/>
         <v>46.507858823529403</v>
       </c>
-      <c r="AE20" s="17">
+      <c r="AE21" s="17">
         <f>AVERAGE(AE2:AE18)</f>
         <v>6.8979596866944624</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF21" s="11">
         <f t="shared" si="29"/>
         <v>12.154705882352939</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG21" s="11">
         <f t="shared" si="29"/>
         <v>2.3582352941176477</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH21" s="11">
         <f t="shared" si="29"/>
         <v>0.89117647058823535</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI21" s="11">
         <f>AVERAGE(AI2:AI18)</f>
         <v>4.1223529411764703</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AJ21" s="11">
         <f t="shared" si="29"/>
         <v>1.3235294117647058</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AK21" s="11">
         <f t="shared" si="29"/>
         <v>20.849999999999994</v>
       </c>
-      <c r="AL20" s="11">
+      <c r="AL21" s="11">
         <f t="shared" si="29"/>
         <v>2.0905484078571428</v>
       </c>
-      <c r="AM20" s="11">
+      <c r="AM21" s="11">
         <f t="shared" si="29"/>
         <v>0.6469714757142857</v>
       </c>
-      <c r="AN20" s="11">
+      <c r="AN21" s="11">
         <f t="shared" si="29"/>
         <v>2.8892456778571431</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO21" s="11">
         <f>AVERAGE(AO2:AO18)</f>
         <v>5.7780667834392849</v>
       </c>
-      <c r="AP20" s="11">
+      <c r="AP21" s="11">
         <f t="shared" si="29"/>
         <v>342.30730390915801</v>
       </c>
-      <c r="AQ20" s="11">
+      <c r="AQ21" s="11">
         <f t="shared" si="29"/>
         <v>356.45503397150969</v>
       </c>
-      <c r="AR20" s="11">
+      <c r="AR21" s="11">
         <f t="shared" si="29"/>
         <v>17.055685764521638</v>
       </c>
-      <c r="AS20" s="11">
+      <c r="AS21" s="11">
         <f t="shared" si="29"/>
         <v>5.0514232427164805</v>
       </c>
-      <c r="AT20" s="17">
+      <c r="AT21" s="17">
         <f>AVERAGE(AT2:AT18)</f>
         <v>82.740000000000009</v>
       </c>
-      <c r="AU20" s="17">
+      <c r="AU21" s="17">
         <f t="shared" si="29"/>
         <v>46.76443670774912</v>
       </c>
-      <c r="AV20" s="17">
+      <c r="AV21" s="17">
         <f>AVERAGE(AV2:AV18)</f>
         <v>35.992658125609722</v>
       </c>
-      <c r="AW20" s="17">
+      <c r="AW21" s="17">
         <f>AVERAGE(AW2:AW18)</f>
         <v>8.1706259547468267</v>
       </c>
-      <c r="AX20" s="11">
+      <c r="AX21" s="11">
         <f t="shared" si="29"/>
         <v>46.5</v>
       </c>
-      <c r="AY20" s="11">
+      <c r="AY21" s="11">
         <f t="shared" si="29"/>
         <v>35.6</v>
       </c>
-      <c r="AZ20" s="11">
+      <c r="AZ21" s="11">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="BA20" s="16"/>
-      <c r="BB20" s="16"/>
-      <c r="BC20" s="11">
+      <c r="BA21" s="16"/>
+      <c r="BB21" s="16"/>
+      <c r="BC21" s="11">
         <f>AVERAGE(BC2:BC18)</f>
         <v>6191146.5</v>
       </c>
-      <c r="BD20" s="16"/>
-      <c r="BE20" s="16"/>
-      <c r="BF20" s="16"/>
-      <c r="BG20" s="16"/>
-      <c r="BH20" s="16"/>
-      <c r="BI20" s="16"/>
-      <c r="BJ20" s="16"/>
-      <c r="BK20" s="25">
-        <f t="shared" ref="BK20:BR20" si="31">AVERAGE(BK2:BK18)</f>
+      <c r="BD21" s="16"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="25">
+        <f t="shared" ref="BF21:BM21" si="31">AVERAGE(BF2:BF18)</f>
         <v>62276490.149999999</v>
       </c>
-      <c r="BL20" s="25">
+      <c r="BG21" s="25">
         <f t="shared" si="31"/>
         <v>2236143.6365082702</v>
       </c>
-      <c r="BM20" s="25">
+      <c r="BH21" s="25">
         <f t="shared" si="31"/>
         <v>52726324.132356286</v>
       </c>
-      <c r="BN20" s="25">
+      <c r="BI21" s="25">
         <f t="shared" si="31"/>
         <v>12131997.554151986</v>
       </c>
-      <c r="BO20" s="26">
+      <c r="BJ21" s="26">
         <f t="shared" si="31"/>
         <v>2322.9130825949997</v>
       </c>
-      <c r="BP20" s="26">
+      <c r="BK21" s="26">
         <f t="shared" si="31"/>
         <v>83.408157641758464</v>
       </c>
-      <c r="BQ20" s="26">
+      <c r="BL21" s="26">
         <f t="shared" si="31"/>
         <v>1966.6918901368899</v>
       </c>
-      <c r="BR20" s="26">
+      <c r="BM21" s="26">
         <f t="shared" si="31"/>
         <v>452.52350876986907</v>
       </c>
-      <c r="BS20" s="16"/>
-      <c r="BT20" s="16"/>
-      <c r="BU20" s="13"/>
-      <c r="BV20" s="13"/>
-      <c r="BW20" s="13"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="13"/>
+      <c r="CX21" s="16"/>
+      <c r="CY21" s="16"/>
+      <c r="CZ21" s="13"/>
+      <c r="EH21" s="13"/>
     </row>
-    <row r="21" spans="1:166" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I22" t="s">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J22" t="s">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>11</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" t="s">
         <v>11</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>11</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>11</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q22" t="s">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R22" t="s">
         <v>4</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S22" t="s">
         <v>4</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T22" t="s">
         <v>4</v>
       </c>
-      <c r="U21" t="s">
+      <c r="U22" t="s">
         <v>4</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V22" t="s">
         <v>4</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W22" t="s">
         <v>4</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X22" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y22" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z22" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA22" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB22" t="s">
         <v>11</v>
       </c>
-      <c r="AC21" s="3" t="s">
+      <c r="AC22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AD21" s="3" t="s">
+      <c r="AD22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE21" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF22" t="s">
         <v>11</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AG22" t="s">
         <v>11</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AH22" t="s">
         <v>11</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AI22" t="s">
         <v>11</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AJ22" t="s">
         <v>11</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK22" t="s">
         <v>11</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AL22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AM22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN21" s="1" t="s">
+      <c r="AN22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AO21" s="1" t="s">
+      <c r="AO22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AP22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AQ22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AR21" s="1" t="s">
+      <c r="AR22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AS21" s="1" t="s">
+      <c r="AS22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AT21" s="15" t="s">
+      <c r="AT22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AU21" s="15" t="s">
+      <c r="AU22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AV21" s="15" t="s">
+      <c r="AV22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AW21" s="15" t="s">
+      <c r="AW22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AX21" s="15" t="s">
+      <c r="AX22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AY21" s="15" t="s">
+      <c r="AY22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AZ21" s="15" t="s">
+      <c r="AZ22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BA21" s="15" t="s">
+      <c r="BA22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BB21" s="15" t="s">
+      <c r="BB22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BC21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF21" s="15"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
-      <c r="BJ21" s="15"/>
-      <c r="BK21" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL21" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM21" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN21" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO21" s="15"/>
-      <c r="BP21" s="15"/>
-      <c r="BQ21" s="15"/>
-      <c r="BR21" s="15"/>
-      <c r="BS21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BT21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CA21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CF21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CH21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CI21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CJ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CL21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CM21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CN21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CO21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CP21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CQ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CU21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CV21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CW21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CZ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DA21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DB21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DC21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DD21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DE21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DF21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DG21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DH21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DJ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DK21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DM21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DN21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DO21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DP21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DR21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DT21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DU21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DV21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DW21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DX21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EB21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EC21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ED21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EF21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EG21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EH21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EI21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EJ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EK21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EL21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EM21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EN21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EO21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EP21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EQ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ER21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ES21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="ET21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EU21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EV21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EW21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EX21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EY21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EZ21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FA21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FB21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FC21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FD21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FE21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FF21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FG21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FH21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FI21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ21" s="14" t="s">
-        <v>163</v>
+      <c r="BC22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF22" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG22" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI22" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO22" s="14"/>
+      <c r="BP22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BQ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BU22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BV22" s="14"/>
+      <c r="BW22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX22" s="14"/>
+      <c r="BY22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CB22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CC22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CF22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CG22" s="14"/>
+      <c r="CH22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CI22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CJ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CK22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CL22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CM22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CN22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CO22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CP22" s="14"/>
+      <c r="CQ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CR22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CS22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CU22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CV22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CW22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CX22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="CY22" s="14"/>
+      <c r="CZ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DB22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DC22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DD22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DF22" s="14"/>
+      <c r="DG22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DH22" s="14"/>
+      <c r="DI22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DJ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DK22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DL22" s="14"/>
+      <c r="DM22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DN22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DP22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DQ22" s="14"/>
+      <c r="DR22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DS22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DT22" s="14"/>
+      <c r="DU22" s="14"/>
+      <c r="DV22" s="14"/>
+      <c r="DW22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DX22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DY22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ22" s="14"/>
+      <c r="EA22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EB22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EC22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ED22" s="14"/>
+      <c r="EE22" s="14"/>
+      <c r="EF22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EG22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EH22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EI22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EJ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EK22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EL22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EM22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EN22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EO22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EQ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ES22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="ET22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EU22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EV22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EW22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EX22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FB22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FC22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FD22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FE22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FF22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FG22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FH22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FI22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FJ22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FK22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FL22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FM22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FN22" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="FO22" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:166" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U23" t="s">
         <v>18</v>
       </c>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="15"/>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
-      <c r="BM22" s="14"/>
-      <c r="BN22" s="14"/>
-      <c r="BO22" s="14"/>
-      <c r="BP22" s="14"/>
-      <c r="BQ22" s="14"/>
-      <c r="BR22" s="14"/>
-      <c r="BS22" s="14"/>
-      <c r="BT22" s="14"/>
-    </row>
-    <row r="23" spans="1:166" x14ac:dyDescent="0.3">
       <c r="AR23" s="14"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
       <c r="AU23" s="15"/>
       <c r="AV23" s="15"/>
       <c r="AW23" s="15"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="22"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
+      <c r="BL23" s="14"/>
       <c r="BM23" s="14"/>
       <c r="BN23" s="14"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="14"/>
-      <c r="BQ23" s="14"/>
-      <c r="BR23" s="14"/>
-      <c r="BS23" s="14"/>
-      <c r="BT23" s="14"/>
+      <c r="BQ23"/>
+      <c r="CX23" s="14"/>
+      <c r="CY23" s="14"/>
     </row>
-    <row r="24" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:171" x14ac:dyDescent="0.3">
       <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="22"/>
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
       <c r="BJ24" s="14"/>
@@ -5943,12 +6109,11 @@
       <c r="BN24" s="14"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="14"/>
-      <c r="BQ24" s="14"/>
-      <c r="BR24" s="14"/>
-      <c r="BS24" s="14"/>
-      <c r="BT24" s="14"/>
+      <c r="BQ24"/>
+      <c r="CX24" s="14"/>
+      <c r="CY24" s="14"/>
     </row>
-    <row r="25" spans="1:166" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.3">
       <c r="AR25" s="14"/>
       <c r="AS25" s="14"/>
       <c r="AT25" s="14"/>
@@ -5975,15 +6140,52 @@
       <c r="BO25" s="14"/>
       <c r="BP25" s="14"/>
       <c r="BQ25" s="14"/>
-      <c r="BR25" s="14"/>
-      <c r="BS25" s="14"/>
-      <c r="BT25" s="14"/>
+      <c r="CX25" s="14"/>
+      <c r="CY25" s="14"/>
+    </row>
+    <row r="26" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
+      <c r="BL26" s="14"/>
+      <c r="BM26" s="14"/>
+      <c r="BN26" s="14"/>
+      <c r="BO26" s="14"/>
+      <c r="BP26" s="14"/>
+      <c r="BQ26" s="14"/>
+      <c r="CX26" s="14"/>
+      <c r="CY26" s="14"/>
+    </row>
+    <row r="27" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="CX27"/>
+      <c r="CY27"/>
+    </row>
+    <row r="28" spans="1:171" x14ac:dyDescent="0.3">
+      <c r="CX28" s="14"/>
+      <c r="CY28" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BK21" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
-    <hyperlink ref="BN21" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
-    <hyperlink ref="BM21" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
+    <hyperlink ref="BF22" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
+    <hyperlink ref="BI22" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
+    <hyperlink ref="BH22" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>

--- a/cbrunner/Parameters/Workbook_BCForestSector.xlsx
+++ b/cbrunner/Parameters/Workbook_BCForestSector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6FE19C-3E58-451C-9555-E2CEC49542D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD5BD11-5513-4DF1-982A-9B56264155A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{2BA4BFD9-F9F3-43CD-AE58-1F5FEB17B570}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Series" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="226">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>HBS Summary</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Waste rate HBS (%)</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Gross area minus reserves (RESULTS)</t>
   </si>
   <si>
@@ -542,15 +533,6 @@
     <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=2510008402&amp;pickMembers%5B0%5D=1.11&amp;pickMembers%5B1%5D=2.1&amp;cubeTimeFrame.startYear=2020&amp;cubeTimeFrame.endYear=2022&amp;referencePeriods=20200101%2C20220101</t>
   </si>
   <si>
-    <t>Production Electricity Total BC (MWh)</t>
-  </si>
-  <si>
-    <t>Production Electricity Wood BC (MWh)</t>
-  </si>
-  <si>
-    <t>Production Electricity Pulping Liquor BC (MWh)</t>
-  </si>
-  <si>
     <t>Production Electricity US (PJ/yr)</t>
   </si>
   <si>
@@ -603,6 +585,138 @@
   </si>
   <si>
     <t>Consumption Petroleum Crude CA (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Total BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Thermal Plants BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Wood BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Pulping Liquor BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Hydro BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity hydro, tidal, wind, solar and other generation BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Refined Petrolium BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Biofuels BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/cv.action?pid=2510002901</t>
+  </si>
+  <si>
+    <t>Primary and Secondary Energy Transformed to Refined Petrolium Products BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Primary and Secondary Energy Transformed to Electricity BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity Total BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Feds Summary (only available for 2019)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity Residential BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Electricity Total Available For Use BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=2510002101&amp;pickMembers%5B0%5D=1.11&amp;cubeTimeFrame.startYear=2018&amp;cubeTimeFrame.endYear=2022&amp;referencePeriods=20180101%2C20220101</t>
+  </si>
+  <si>
+    <t>https://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/showTable.cfm?type=CP&amp;sector=res&amp;juris=bc&amp;year=2021&amp;rn=1&amp;page=0</t>
+  </si>
+  <si>
+    <t>Consumption Electricity Commercial and Institutional BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity Industrial BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Electricity Transportation BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Hydro supply 2021</t>
+  </si>
+  <si>
+    <t>Allocated used 2021</t>
+  </si>
+  <si>
+    <t>Transporation supplied by petrolium 2021</t>
+  </si>
+  <si>
+    <t>Hydro supply with Site C</t>
+  </si>
+  <si>
+    <t>Surplus</t>
+  </si>
+  <si>
+    <t>Efficiency ICEs</t>
+  </si>
+  <si>
+    <t>Efficiency ZEVs</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Transporation supplied by surplus accounting for efficiency (% of demand)</t>
+  </si>
+  <si>
+    <t>Transporation electricity demand with ZEVs (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Total BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Net Supply BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Transporation BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Industiral BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Commercial BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Residential BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Non-energy Use BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Use, Final Demand BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Consumption Primary and Secondary Energy Producer BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum Crude BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Petroleum Products BC (PJ/yr)</t>
+  </si>
+  <si>
+    <t>Production Coal BC (PJ/yr)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +727,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,15 +739,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -651,10 +756,31 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -684,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF4E7B2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,9 +826,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -731,58 +857,76 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -794,6 +938,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4E7B2"/>
+      <color rgb="FFF4F9F1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1128,559 +1278,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894B68DB-5605-4152-9FD3-1C1553CFC20E}">
-  <dimension ref="A1:FO28"/>
+  <dimension ref="A1:GX37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BF10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="BL18" sqref="BL18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="1" customWidth="1"/>
-    <col min="20" max="29" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="1" customWidth="1"/>
+    <col min="20" max="29" width="9.7109375" customWidth="1"/>
     <col min="30" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" customWidth="1"/>
-    <col min="33" max="37" width="11.33203125" customWidth="1"/>
-    <col min="38" max="38" width="9.88671875" style="1" customWidth="1"/>
-    <col min="39" max="41" width="11.33203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="11.109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.6640625" customWidth="1"/>
-    <col min="44" max="44" width="11.33203125" style="1" customWidth="1"/>
-    <col min="45" max="52" width="8.88671875" style="1"/>
+    <col min="32" max="32" width="9.28515625" customWidth="1"/>
+    <col min="33" max="37" width="11.28515625" customWidth="1"/>
+    <col min="38" max="38" width="9.85546875" style="1" customWidth="1"/>
+    <col min="39" max="41" width="11.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" style="1" customWidth="1"/>
+    <col min="45" max="52" width="8.85546875" style="1"/>
     <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="65" width="11.6640625" style="1" customWidth="1"/>
-    <col min="66" max="69" width="10.44140625" style="1" customWidth="1"/>
-    <col min="70" max="72" width="10.44140625" customWidth="1"/>
-    <col min="73" max="74" width="11.77734375" customWidth="1"/>
-    <col min="75" max="101" width="10.44140625" customWidth="1"/>
-    <col min="102" max="104" width="10.44140625" style="1" customWidth="1"/>
-    <col min="105" max="137" width="10.44140625" customWidth="1"/>
-    <col min="138" max="138" width="10.44140625" style="1" customWidth="1"/>
-    <col min="139" max="185" width="10.44140625" customWidth="1"/>
+    <col min="54" max="76" width="11.7109375" style="1" customWidth="1"/>
+    <col min="77" max="85" width="13.7109375" style="1" customWidth="1"/>
+    <col min="86" max="100" width="11.7109375" style="1" customWidth="1"/>
+    <col min="101" max="104" width="10.42578125" style="1" customWidth="1"/>
+    <col min="105" max="107" width="10.42578125" customWidth="1"/>
+    <col min="108" max="109" width="11.7109375" customWidth="1"/>
+    <col min="110" max="136" width="10.42578125" customWidth="1"/>
+    <col min="137" max="139" width="10.42578125" style="1" customWidth="1"/>
+    <col min="140" max="172" width="10.42578125" customWidth="1"/>
+    <col min="173" max="173" width="10.42578125" style="1" customWidth="1"/>
+    <col min="174" max="220" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:171" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:206" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="AM1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="AN1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AW1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="BK1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="BM1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="BN1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO1" s="17"/>
+      <c r="BP1" s="17"/>
+      <c r="BQ1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS1" s="17"/>
+      <c r="BT1" s="17"/>
+      <c r="BU1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="BW1" s="17"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BZ1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="CD1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF1" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="AT1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AU1" s="6" t="s">
+      <c r="CG1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CJ1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL1" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="CM1" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CN1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="CO1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="CP1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="CQ1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="CS1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CT1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX1" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="CY1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="DA1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="DC1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="DD1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="DE1" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="DF1" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG1" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="DH1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="DI1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="DJ1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="DK1" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="DL1" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="DM1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="DN1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="DO1" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="DP1" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ1" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="DR1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="DS1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="DT1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="DU1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="DV1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="DW1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="DX1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="EA1" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="EB1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="EC1" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="ED1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="EE1" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="EF1" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="EH1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="EI1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="EJ1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="EK1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="EL1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="EM1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="EO1" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="EP1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="EQ1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="ER1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="ES1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="ET1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="EU1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="EV1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="EW1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="EX1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="EY1" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="EZ1" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="FA1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="FB1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="FC1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="FD1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="FE1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="FF1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="FG1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="FH1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="FI1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="FJ1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="FK1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="FL1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="FM1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="FN1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="FO1" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="FP1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="FQ1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AV1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC1" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD1" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE1" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF1" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="BG1" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH1" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI1" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="BJ1" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK1" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL1" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM1" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="BN1" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="BO1" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="BR1" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="BS1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="BT1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="BU1" s="29" t="s">
+      <c r="FR1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="FS1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="FT1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="FU1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="FV1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="FW1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="FX1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BV1" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW1" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="BX1" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY1" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="BZ1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="CA1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="CB1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="CC1" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD1" s="29" t="s">
+      <c r="FY1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="FZ1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="GA1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="GB1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="GC1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="GD1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="GE1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="GF1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CE1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="CF1" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="CG1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="CH1" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="CJ1" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="CK1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="CL1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM1" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="CN1" s="29" t="s">
+      <c r="GG1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="GH1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="GI1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="GJ1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="GK1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="GL1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="GM1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="GN1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="GO1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="GP1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="CP1" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="CQ1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="CR1" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="CS1" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="CT1" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="CU1" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="CW1" s="29" t="s">
+      <c r="GQ1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="GR1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="GS1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="GT1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="GU1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="GV1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="GW1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="GX1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="CX1" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="CY1" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="CZ1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="DA1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="DB1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="DC1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="DD1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="DE1" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="DF1" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG1" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="DH1" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="DI1" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="DJ1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="DK1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="DL1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="DM1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="DN1" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO1" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="DP1" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="DQ1" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="DR1" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="DS1" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="DT1" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="DU1" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="DV1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="DW1" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="DX1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="DY1" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="DZ1" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="EA1" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="EB1" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="EC1" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="ED1" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="EE1" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="EF1" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="EG1" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="EH1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="EI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="EJ1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="EL1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="EM1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="EN1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="EO1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="EP1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="EQ1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="ER1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="ES1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="ET1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="EU1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="EV1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="EW1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="EX1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="EY1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="EZ1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="FA1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="FB1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="FC1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="FD1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="FE1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="FF1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="FG1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="FH1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="FI1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="FJ1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="FK1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="FL1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="FM1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="FN1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="FO1" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -1776,17 +2017,58 @@
       </c>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="24"/>
-      <c r="BK2" s="24"/>
-      <c r="BL2" s="24"/>
-      <c r="BM2" s="24"/>
-      <c r="BQ2"/>
+      <c r="BC2" s="29">
+        <f>67773670/1000000*3.6</f>
+        <v>243.98521199999999</v>
+      </c>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="16"/>
+      <c r="BR2" s="19"/>
+      <c r="BS2" s="19"/>
+      <c r="BT2" s="16"/>
+      <c r="BU2" s="16"/>
+      <c r="BV2" s="19"/>
+      <c r="BW2" s="19"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="19"/>
+      <c r="CC2" s="19"/>
+      <c r="CD2" s="19"/>
+      <c r="CE2" s="19"/>
+      <c r="CF2" s="19"/>
+      <c r="CG2" s="19"/>
+      <c r="CH2" s="27"/>
+      <c r="CI2" s="19"/>
+      <c r="CJ2" s="19"/>
+      <c r="CK2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CM2" s="29"/>
+      <c r="CN2" s="19"/>
+      <c r="CO2" s="29"/>
+      <c r="CP2" s="29"/>
+      <c r="CQ2" s="29"/>
+      <c r="CR2" s="29"/>
+      <c r="CS2" s="16"/>
+      <c r="CT2" s="19"/>
+      <c r="CU2" s="29"/>
+      <c r="CV2" s="29"/>
+      <c r="CZ2"/>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -1882,17 +2164,55 @@
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BQ3"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="19"/>
+      <c r="BS3" s="19"/>
+      <c r="BT3" s="16"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="19"/>
+      <c r="BW3" s="19"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="19"/>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
+      <c r="CD3" s="19"/>
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="19"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
+      <c r="CS3" s="16"/>
+      <c r="CT3" s="19"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CZ3"/>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -2035,7 +2355,7 @@
       <c r="AN4" s="7">
         <v>2.52052802</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="12">
         <f t="shared" ref="AO4:AO18" si="15">F4/E4*100</f>
         <v>4.8743912093455464</v>
       </c>
@@ -2047,42 +2367,77 @@
         <f t="shared" ref="AQ4:AQ18" si="17">(E4+AN4)/C4</f>
         <v>372.49056468899522</v>
       </c>
-      <c r="AR4" s="18">
+      <c r="AR4" s="12">
         <f t="shared" ref="AR4:AR18" si="18">(T4+Y4)/C4</f>
         <v>6.8124401913875596</v>
       </c>
-      <c r="AS4" s="18">
+      <c r="AS4" s="12">
         <f>AR4/AQ4*100</f>
         <v>1.8288893296063733</v>
       </c>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18">
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12">
         <f>K4-AE4</f>
         <v>67.391334048825797</v>
       </c>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BQ4"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="27"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="29"/>
+      <c r="CL4" s="29"/>
+      <c r="CM4" s="29"/>
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="29"/>
+      <c r="CP4" s="29"/>
+      <c r="CQ4" s="29"/>
+      <c r="CR4" s="29"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="29"/>
+      <c r="CV4" s="29"/>
+      <c r="CW4" s="10"/>
+      <c r="CX4" s="10"/>
+      <c r="CZ4"/>
+      <c r="EG4" s="10"/>
+      <c r="EH4" s="10"/>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -2225,7 +2580,7 @@
       <c r="AN5" s="7">
         <v>2.58974503</v>
       </c>
-      <c r="AO5" s="18">
+      <c r="AO5" s="12">
         <f t="shared" si="15"/>
         <v>5.4173391593337517</v>
       </c>
@@ -2237,44 +2592,79 @@
         <f t="shared" si="17"/>
         <v>334.49366176767677</v>
       </c>
-      <c r="AR5" s="18">
+      <c r="AR5" s="12">
         <f t="shared" si="18"/>
         <v>7.7616161616161623</v>
       </c>
-      <c r="AS5" s="18">
+      <c r="AS5" s="12">
         <f t="shared" ref="AS5:AS18" si="26">AR5/AQ5*100</f>
         <v>2.3204075439273968</v>
       </c>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12">
         <f t="shared" ref="AU5:AU18" si="27">K5-AE5</f>
         <v>56.722945968826835</v>
       </c>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="23"/>
-      <c r="BI5" s="23"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="24"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BQ5"/>
-      <c r="CX5" s="14"/>
-      <c r="CY5" s="14"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="29"/>
+      <c r="BD5" s="29"/>
+      <c r="BE5" s="29"/>
+      <c r="BF5" s="29"/>
+      <c r="BG5" s="29"/>
+      <c r="BH5" s="29"/>
+      <c r="BI5" s="29"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="19"/>
+      <c r="BW5" s="19"/>
+      <c r="BX5" s="29"/>
+      <c r="BY5" s="19"/>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="27"/>
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
+      <c r="CK5" s="29"/>
+      <c r="CL5" s="29"/>
+      <c r="CM5" s="29"/>
+      <c r="CN5" s="19"/>
+      <c r="CO5" s="29"/>
+      <c r="CP5" s="29"/>
+      <c r="CQ5" s="29"/>
+      <c r="CR5" s="29"/>
+      <c r="CS5" s="16"/>
+      <c r="CT5" s="19"/>
+      <c r="CU5" s="29"/>
+      <c r="CV5" s="29"/>
+      <c r="CW5" s="10"/>
+      <c r="CX5" s="10"/>
+      <c r="CZ5"/>
+      <c r="EG5" s="10"/>
+      <c r="EH5" s="10"/>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -2417,7 +2807,7 @@
       <c r="AN6" s="7">
         <v>1.70868537</v>
       </c>
-      <c r="AO6" s="18">
+      <c r="AO6" s="12">
         <f t="shared" si="15"/>
         <v>4.9508464190928105</v>
       </c>
@@ -2429,44 +2819,79 @@
         <f t="shared" si="17"/>
         <v>313.68710591463412</v>
       </c>
-      <c r="AR6" s="18">
+      <c r="AR6" s="12">
         <f t="shared" si="18"/>
         <v>10.473170731707317</v>
       </c>
-      <c r="AS6" s="18">
+      <c r="AS6" s="12">
         <f t="shared" si="26"/>
         <v>3.33873166420728</v>
       </c>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18">
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12">
         <f t="shared" si="27"/>
         <v>51.503061747706425</v>
       </c>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="14"/>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23"/>
-      <c r="BH6" s="23"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="14"/>
-      <c r="BO6" s="14"/>
-      <c r="BQ6"/>
-      <c r="CX6" s="14"/>
-      <c r="CY6" s="14"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="29"/>
+      <c r="BD6" s="29"/>
+      <c r="BE6" s="29"/>
+      <c r="BF6" s="29"/>
+      <c r="BG6" s="29"/>
+      <c r="BH6" s="29"/>
+      <c r="BI6" s="29"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
+      <c r="BR6" s="19"/>
+      <c r="BS6" s="19"/>
+      <c r="BT6" s="16"/>
+      <c r="BU6" s="16"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="29"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="19"/>
+      <c r="CC6" s="19"/>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="19"/>
+      <c r="CF6" s="19"/>
+      <c r="CG6" s="19"/>
+      <c r="CH6" s="27"/>
+      <c r="CI6" s="19"/>
+      <c r="CJ6" s="19"/>
+      <c r="CK6" s="29"/>
+      <c r="CL6" s="29"/>
+      <c r="CM6" s="29"/>
+      <c r="CN6" s="19"/>
+      <c r="CO6" s="29"/>
+      <c r="CP6" s="29"/>
+      <c r="CQ6" s="29"/>
+      <c r="CR6" s="29"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="19"/>
+      <c r="CU6" s="29"/>
+      <c r="CV6" s="29"/>
+      <c r="CW6" s="10"/>
+      <c r="CX6" s="10"/>
+      <c r="CZ6"/>
+      <c r="EG6" s="10"/>
+      <c r="EH6" s="10"/>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -2609,7 +3034,7 @@
       <c r="AN7" s="7">
         <v>2.0331866299999999</v>
       </c>
-      <c r="AO7" s="18">
+      <c r="AO7" s="12">
         <f t="shared" si="15"/>
         <v>6.4030960727272728</v>
       </c>
@@ -2621,44 +3046,82 @@
         <f t="shared" si="17"/>
         <v>444.10331040816334</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AR7" s="12">
         <f t="shared" si="18"/>
         <v>16.296598639455784</v>
       </c>
-      <c r="AS7" s="18">
+      <c r="AS7" s="12">
         <f t="shared" si="26"/>
         <v>3.6695512637539269</v>
       </c>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18">
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12">
         <f t="shared" si="27"/>
         <v>47.535248664726119</v>
       </c>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="23"/>
-      <c r="BH7" s="23"/>
-      <c r="BI7" s="23"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="14"/>
-      <c r="BO7" s="14"/>
-      <c r="BQ7"/>
-      <c r="CX7" s="14"/>
-      <c r="CY7" s="14"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="29">
+        <f>64223737/1000000*3.6</f>
+        <v>231.20545319999999</v>
+      </c>
+      <c r="BD7" s="29"/>
+      <c r="BE7" s="29"/>
+      <c r="BF7" s="29"/>
+      <c r="BG7" s="29"/>
+      <c r="BH7" s="29"/>
+      <c r="BI7" s="29"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
+      <c r="BR7" s="19"/>
+      <c r="BS7" s="19"/>
+      <c r="BT7" s="16"/>
+      <c r="BU7" s="16"/>
+      <c r="BV7" s="19"/>
+      <c r="BW7" s="19"/>
+      <c r="BX7" s="29"/>
+      <c r="BY7" s="19"/>
+      <c r="BZ7" s="19"/>
+      <c r="CA7" s="19"/>
+      <c r="CB7" s="19"/>
+      <c r="CC7" s="19"/>
+      <c r="CD7" s="19"/>
+      <c r="CE7" s="19"/>
+      <c r="CF7" s="19"/>
+      <c r="CG7" s="19"/>
+      <c r="CH7" s="27"/>
+      <c r="CI7" s="19"/>
+      <c r="CJ7" s="19"/>
+      <c r="CK7" s="29"/>
+      <c r="CL7" s="29"/>
+      <c r="CM7" s="29"/>
+      <c r="CN7" s="19"/>
+      <c r="CO7" s="29"/>
+      <c r="CP7" s="29"/>
+      <c r="CQ7" s="29"/>
+      <c r="CR7" s="29"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="19"/>
+      <c r="CU7" s="29"/>
+      <c r="CV7" s="29"/>
+      <c r="CW7" s="10"/>
+      <c r="CX7" s="10"/>
+      <c r="CZ7"/>
+      <c r="EG7" s="10"/>
+      <c r="EH7" s="10"/>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -2801,7 +3264,7 @@
       <c r="AN8" s="7">
         <v>1.76094258</v>
       </c>
-      <c r="AO8" s="18">
+      <c r="AO8" s="12">
         <f t="shared" si="15"/>
         <v>5.637640363944139</v>
       </c>
@@ -2813,44 +3276,79 @@
         <f t="shared" si="17"/>
         <v>437.65628060240965</v>
       </c>
-      <c r="AR8" s="18">
+      <c r="AR8" s="12">
         <f t="shared" si="18"/>
         <v>10.346987951807229</v>
       </c>
-      <c r="AS8" s="18">
+      <c r="AS8" s="12">
         <f t="shared" si="26"/>
         <v>2.3641813017204214</v>
       </c>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18">
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12">
         <f t="shared" si="27"/>
         <v>37.440020302321088</v>
       </c>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="23"/>
-      <c r="BG8" s="23"/>
-      <c r="BH8" s="23"/>
-      <c r="BI8" s="23"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="24"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BQ8"/>
-      <c r="CX8" s="14"/>
-      <c r="CY8" s="14"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="29"/>
+      <c r="BF8" s="29"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="29"/>
+      <c r="BI8" s="29"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="19"/>
+      <c r="BS8" s="19"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="19"/>
+      <c r="BW8" s="19"/>
+      <c r="BX8" s="29"/>
+      <c r="BY8" s="19"/>
+      <c r="BZ8" s="19"/>
+      <c r="CA8" s="19"/>
+      <c r="CB8" s="19"/>
+      <c r="CC8" s="19"/>
+      <c r="CD8" s="19"/>
+      <c r="CE8" s="19"/>
+      <c r="CF8" s="19"/>
+      <c r="CG8" s="19"/>
+      <c r="CH8" s="27"/>
+      <c r="CI8" s="19"/>
+      <c r="CJ8" s="19"/>
+      <c r="CK8" s="29"/>
+      <c r="CL8" s="29"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="19"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="16"/>
+      <c r="CT8" s="19"/>
+      <c r="CU8" s="29"/>
+      <c r="CV8" s="29"/>
+      <c r="CW8" s="10"/>
+      <c r="CX8" s="10"/>
+      <c r="CZ8"/>
+      <c r="EG8" s="10"/>
+      <c r="EH8" s="10"/>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -2993,7 +3491,7 @@
       <c r="AN9" s="7">
         <v>3.6490071199999998</v>
       </c>
-      <c r="AO9" s="18">
+      <c r="AO9" s="12">
         <f t="shared" si="15"/>
         <v>5.0486543369734802</v>
       </c>
@@ -3005,44 +3503,79 @@
         <f t="shared" si="17"/>
         <v>390.31056378947369</v>
       </c>
-      <c r="AR9" s="18">
+      <c r="AR9" s="12">
         <f t="shared" si="18"/>
         <v>12.608421052631579</v>
       </c>
-      <c r="AS9" s="18">
+      <c r="AS9" s="12">
         <f t="shared" si="26"/>
         <v>3.2303560862452931</v>
       </c>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18">
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12">
         <f t="shared" si="27"/>
         <v>38.396320084292327</v>
       </c>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="23"/>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="14"/>
-      <c r="BO9" s="14"/>
-      <c r="BQ9"/>
-      <c r="CX9" s="14"/>
-      <c r="CY9" s="14"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="19"/>
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="19"/>
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="29"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19"/>
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19"/>
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="27"/>
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="29"/>
+      <c r="CL9" s="29"/>
+      <c r="CM9" s="29"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="19"/>
+      <c r="CU9" s="29"/>
+      <c r="CV9" s="29"/>
+      <c r="CW9" s="10"/>
+      <c r="CX9" s="10"/>
+      <c r="CZ9"/>
+      <c r="EG9" s="10"/>
+      <c r="EH9" s="10"/>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -3185,7 +3718,7 @@
       <c r="AN10" s="7">
         <v>3.5236614999999998</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO10" s="12">
         <f t="shared" si="15"/>
         <v>6.6161285872951368</v>
       </c>
@@ -3197,44 +3730,79 @@
         <f t="shared" si="17"/>
         <v>404.99299214659686</v>
       </c>
-      <c r="AR10" s="18">
+      <c r="AR10" s="12">
         <f t="shared" si="18"/>
         <v>14.435602094240839</v>
       </c>
-      <c r="AS10" s="18">
+      <c r="AS10" s="12">
         <f t="shared" si="26"/>
         <v>3.5644078722763499</v>
       </c>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18">
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12">
         <f t="shared" si="27"/>
         <v>37.949339937911276</v>
       </c>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="23"/>
-      <c r="BG10" s="23"/>
-      <c r="BH10" s="23"/>
-      <c r="BI10" s="23"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="14"/>
-      <c r="BO10" s="14"/>
-      <c r="BQ10"/>
-      <c r="CX10" s="14"/>
-      <c r="CY10" s="14"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="29"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19"/>
+      <c r="BX10" s="29"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="19"/>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="19"/>
+      <c r="CF10" s="19"/>
+      <c r="CG10" s="19"/>
+      <c r="CH10" s="27"/>
+      <c r="CI10" s="19"/>
+      <c r="CJ10" s="19"/>
+      <c r="CK10" s="29"/>
+      <c r="CL10" s="29"/>
+      <c r="CM10" s="29"/>
+      <c r="CN10" s="19"/>
+      <c r="CO10" s="29"/>
+      <c r="CP10" s="29"/>
+      <c r="CQ10" s="29"/>
+      <c r="CR10" s="29"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="19"/>
+      <c r="CU10" s="29"/>
+      <c r="CV10" s="29"/>
+      <c r="CW10" s="10"/>
+      <c r="CX10" s="10"/>
+      <c r="CZ10"/>
+      <c r="EG10" s="10"/>
+      <c r="EH10" s="10"/>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -3377,7 +3945,7 @@
       <c r="AN11" s="7">
         <v>3.1148430500000002</v>
       </c>
-      <c r="AO11" s="18">
+      <c r="AO11" s="12">
         <f t="shared" si="15"/>
         <v>6.5014878616816913</v>
       </c>
@@ -3389,44 +3957,79 @@
         <f t="shared" si="17"/>
         <v>370.60127251308904</v>
       </c>
-      <c r="AR11" s="18">
+      <c r="AR11" s="12">
         <f t="shared" si="18"/>
         <v>15.263874345549738</v>
       </c>
-      <c r="AS11" s="18">
+      <c r="AS11" s="12">
         <f t="shared" si="26"/>
         <v>4.1186783418318242</v>
       </c>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18">
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12">
         <f t="shared" si="27"/>
         <v>39.000290705214788</v>
       </c>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="24"/>
-      <c r="BK11" s="24"/>
-      <c r="BL11" s="24"/>
-      <c r="BM11" s="24"/>
-      <c r="BN11" s="14"/>
-      <c r="BO11" s="14"/>
-      <c r="BQ11"/>
-      <c r="CX11" s="14"/>
-      <c r="CY11" s="14"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="19"/>
+      <c r="BS11" s="19"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="19"/>
+      <c r="BW11" s="19"/>
+      <c r="BX11" s="29"/>
+      <c r="BY11" s="19"/>
+      <c r="BZ11" s="19"/>
+      <c r="CA11" s="19"/>
+      <c r="CB11" s="19"/>
+      <c r="CC11" s="19"/>
+      <c r="CD11" s="19"/>
+      <c r="CE11" s="19"/>
+      <c r="CF11" s="19"/>
+      <c r="CG11" s="19"/>
+      <c r="CH11" s="27"/>
+      <c r="CI11" s="19"/>
+      <c r="CJ11" s="19"/>
+      <c r="CK11" s="19"/>
+      <c r="CL11" s="19"/>
+      <c r="CM11" s="19"/>
+      <c r="CN11" s="19"/>
+      <c r="CO11" s="19"/>
+      <c r="CP11" s="19"/>
+      <c r="CQ11" s="19"/>
+      <c r="CR11" s="19"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="19"/>
+      <c r="CU11" s="19"/>
+      <c r="CV11" s="19"/>
+      <c r="CW11" s="10"/>
+      <c r="CX11" s="10"/>
+      <c r="CZ11"/>
+      <c r="EG11" s="10"/>
+      <c r="EH11" s="10"/>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:A18" si="28">A11+1</f>
         <v>2015</v>
@@ -3570,7 +4173,7 @@
       <c r="AN12" s="7">
         <v>3.9029744900000001</v>
       </c>
-      <c r="AO12" s="18">
+      <c r="AO12" s="12">
         <f t="shared" si="15"/>
         <v>4.0040986833673173</v>
       </c>
@@ -3582,53 +4185,91 @@
         <f t="shared" si="17"/>
         <v>361.00982333333332</v>
       </c>
-      <c r="AR12" s="18">
+      <c r="AR12" s="12">
         <f t="shared" si="18"/>
         <v>14.167164179104477</v>
       </c>
-      <c r="AS12" s="18">
+      <c r="AS12" s="12">
         <f t="shared" si="26"/>
         <v>3.9243154239665734</v>
       </c>
-      <c r="AT12" s="18">
+      <c r="AT12" s="12">
         <f>71.9+9.6+0.8+0.7</f>
         <v>83</v>
       </c>
-      <c r="AU12" s="18">
+      <c r="AU12" s="12">
         <f t="shared" si="27"/>
         <v>39.948208188765108</v>
       </c>
-      <c r="AV12" s="18">
+      <c r="AV12" s="12">
         <f>AT12-AU12</f>
         <v>43.051791811234892</v>
       </c>
-      <c r="AW12" s="18">
+      <c r="AW12" s="12">
         <f>2.2+6.4</f>
         <v>8.6000000000000014</v>
       </c>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="23"/>
-      <c r="BH12" s="23"/>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="14"/>
-      <c r="BO12" s="14"/>
-      <c r="BQ12"/>
-      <c r="CX12" s="14"/>
-      <c r="CY12" s="14"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="29">
+        <f>71770508/1000000*3.6</f>
+        <v>258.37382880000001</v>
+      </c>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="19"/>
+      <c r="BS12" s="19"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="19"/>
+      <c r="BW12" s="19"/>
+      <c r="BX12" s="29"/>
+      <c r="BY12" s="19"/>
+      <c r="BZ12" s="19"/>
+      <c r="CA12" s="19"/>
+      <c r="CB12" s="19"/>
+      <c r="CC12" s="19"/>
+      <c r="CD12" s="19"/>
+      <c r="CE12" s="19"/>
+      <c r="CF12" s="19"/>
+      <c r="CG12" s="19"/>
+      <c r="CH12" s="27"/>
+      <c r="CI12" s="19"/>
+      <c r="CJ12" s="19"/>
+      <c r="CK12" s="19"/>
+      <c r="CL12" s="19"/>
+      <c r="CM12" s="19"/>
+      <c r="CN12" s="19"/>
+      <c r="CO12" s="19"/>
+      <c r="CP12" s="19"/>
+      <c r="CQ12" s="19"/>
+      <c r="CR12" s="19"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="19"/>
+      <c r="CU12" s="19"/>
+      <c r="CV12" s="19"/>
+      <c r="CW12" s="10"/>
+      <c r="CX12" s="10"/>
+      <c r="CZ12"/>
+      <c r="EG12" s="10"/>
+      <c r="EH12" s="10"/>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="28"/>
         <v>2016</v>
@@ -3772,7 +4413,7 @@
       <c r="AN13" s="7">
         <v>3.5572508599999999</v>
       </c>
-      <c r="AO13" s="18">
+      <c r="AO13" s="12">
         <f t="shared" si="15"/>
         <v>7.4566629186672477</v>
       </c>
@@ -3784,44 +4425,79 @@
         <f t="shared" si="17"/>
         <v>363.25251688442211</v>
       </c>
-      <c r="AR13" s="18">
+      <c r="AR13" s="12">
         <f t="shared" si="18"/>
         <v>21.918592964824118</v>
       </c>
-      <c r="AS13" s="18">
+      <c r="AS13" s="12">
         <f t="shared" si="26"/>
         <v>6.0339824078350617</v>
       </c>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18">
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12">
         <f t="shared" si="27"/>
         <v>40.936531199756729</v>
       </c>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="23"/>
-      <c r="BH13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="14"/>
-      <c r="BO13" s="14"/>
-      <c r="BQ13"/>
-      <c r="CX13" s="14"/>
-      <c r="CY13" s="14"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="19"/>
+      <c r="BS13" s="19"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="19"/>
+      <c r="BW13" s="19"/>
+      <c r="BX13" s="29"/>
+      <c r="BY13" s="19"/>
+      <c r="BZ13" s="19"/>
+      <c r="CA13" s="19"/>
+      <c r="CB13" s="19"/>
+      <c r="CC13" s="19"/>
+      <c r="CD13" s="19"/>
+      <c r="CE13" s="19"/>
+      <c r="CF13" s="19"/>
+      <c r="CG13" s="19"/>
+      <c r="CH13" s="27"/>
+      <c r="CI13" s="19"/>
+      <c r="CJ13" s="19"/>
+      <c r="CK13" s="19"/>
+      <c r="CL13" s="19"/>
+      <c r="CM13" s="19"/>
+      <c r="CN13" s="19"/>
+      <c r="CO13" s="19"/>
+      <c r="CP13" s="19"/>
+      <c r="CQ13" s="19"/>
+      <c r="CR13" s="19"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="19"/>
+      <c r="CU13" s="19"/>
+      <c r="CV13" s="19"/>
+      <c r="CW13" s="10"/>
+      <c r="CX13" s="10"/>
+      <c r="CZ13"/>
+      <c r="EG13" s="10"/>
+      <c r="EH13" s="10"/>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="28"/>
         <v>2017</v>
@@ -3965,7 +4641,7 @@
       <c r="AN14" s="7">
         <v>3.6197980900000002</v>
       </c>
-      <c r="AO14" s="18">
+      <c r="AO14" s="12">
         <f t="shared" si="15"/>
         <v>7.0662956244330219</v>
       </c>
@@ -3977,53 +4653,88 @@
         <f t="shared" si="17"/>
         <v>347.06367208955226</v>
       </c>
-      <c r="AR14" s="18">
+      <c r="AR14" s="12">
         <f t="shared" si="18"/>
         <v>20.013930348258707</v>
       </c>
-      <c r="AS14" s="18">
+      <c r="AS14" s="12">
         <f t="shared" si="26"/>
         <v>5.766645131068211</v>
       </c>
-      <c r="AT14" s="18">
+      <c r="AT14" s="12">
         <f>72.4+10.4+0.9+0.7</f>
         <v>84.40000000000002</v>
       </c>
-      <c r="AU14" s="18">
+      <c r="AU14" s="12">
         <f t="shared" si="27"/>
         <v>44.823844893811497</v>
       </c>
-      <c r="AV14" s="18">
+      <c r="AV14" s="12">
         <f>AT14-AU14</f>
         <v>39.576155106188523</v>
       </c>
-      <c r="AW14" s="18">
+      <c r="AW14" s="12">
         <f>0.4+6.1</f>
         <v>6.5</v>
       </c>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="24"/>
-      <c r="BK14" s="24"/>
-      <c r="BL14" s="24"/>
-      <c r="BM14" s="24"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BQ14"/>
-      <c r="CX14" s="14"/>
-      <c r="CY14" s="14"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="19"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="19"/>
+      <c r="BS14" s="19"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="19"/>
+      <c r="BW14" s="19"/>
+      <c r="BX14" s="29"/>
+      <c r="BY14" s="19"/>
+      <c r="BZ14" s="19"/>
+      <c r="CA14" s="34"/>
+      <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="33"/>
+      <c r="CF14" s="33"/>
+      <c r="CG14" s="19"/>
+      <c r="CH14" s="27"/>
+      <c r="CI14" s="19"/>
+      <c r="CJ14" s="19"/>
+      <c r="CK14" s="19"/>
+      <c r="CL14" s="19"/>
+      <c r="CM14" s="19"/>
+      <c r="CN14" s="19"/>
+      <c r="CO14" s="19"/>
+      <c r="CP14" s="19"/>
+      <c r="CQ14" s="19"/>
+      <c r="CR14" s="19"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="19"/>
+      <c r="CU14" s="19"/>
+      <c r="CV14" s="19"/>
+      <c r="CW14" s="10"/>
+      <c r="CX14" s="10"/>
+      <c r="CZ14"/>
+      <c r="EG14" s="10"/>
+      <c r="EH14" s="10"/>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="28"/>
         <v>2018</v>
@@ -4167,7 +4878,7 @@
       <c r="AN15" s="7">
         <v>3.4786978</v>
       </c>
-      <c r="AO15" s="18">
+      <c r="AO15" s="12">
         <f t="shared" si="15"/>
         <v>4.5351610931474333</v>
       </c>
@@ -4179,355 +4890,407 @@
         <f t="shared" si="17"/>
         <v>369.26405104166668</v>
       </c>
-      <c r="AR15" s="18">
+      <c r="AR15" s="12">
         <f t="shared" si="18"/>
         <v>26.719791666666669</v>
       </c>
-      <c r="AS15" s="18">
+      <c r="AS15" s="12">
         <f t="shared" si="26"/>
         <v>7.2359580065517086</v>
       </c>
-      <c r="AT15" s="18">
+      <c r="AT15" s="12">
         <f>70.7+10.2+0.9+0.7</f>
         <v>82.500000000000014</v>
       </c>
-      <c r="AU15" s="18">
+      <c r="AU15" s="12">
         <f t="shared" si="27"/>
         <v>50.055462109080231</v>
       </c>
-      <c r="AV15" s="18">
+      <c r="AV15" s="12">
         <f>AT15-AU15</f>
         <v>32.444537890919783</v>
       </c>
-      <c r="AW15" s="18">
+      <c r="AW15" s="12">
         <f>9.6</f>
         <v>9.6</v>
       </c>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="23">
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="29">
+        <f>69780598/1000000*3.6</f>
+        <v>251.2101528</v>
+      </c>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="29">
+        <f>61791127/1000000*3.6</f>
+        <v>222.44805720000002</v>
+      </c>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="29"/>
+      <c r="BI15" s="29"/>
+      <c r="BJ15" s="19">
+        <f>BK15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2195.2380975900001</v>
+      </c>
+      <c r="BK15" s="16">
         <v>58853568.299999997</v>
       </c>
-      <c r="BG15" s="23">
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16">
         <v>3136365.1964609982</v>
       </c>
-      <c r="BH15" s="23">
+      <c r="BR15" s="19">
+        <f>BQ15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>116.98642182799523</v>
+      </c>
+      <c r="BS15" s="19"/>
+      <c r="BT15" s="16"/>
+      <c r="BU15" s="16">
         <v>50315758.892777875</v>
       </c>
-      <c r="BI15" s="23">
+      <c r="BV15" s="19">
+        <f>BU15*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>1876.777806700615</v>
+      </c>
+      <c r="BW15" s="19"/>
+      <c r="BX15" s="29"/>
+      <c r="BY15" s="19">
+        <f>SUM(BZ15:CC15)</f>
+        <v>226.90000000000003</v>
+      </c>
+      <c r="BZ15" s="28">
+        <v>70</v>
+      </c>
+      <c r="CA15" s="34">
+        <v>62.8</v>
+      </c>
+      <c r="CB15" s="34">
+        <v>93.3</v>
+      </c>
+      <c r="CC15" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="CD15" s="19"/>
+      <c r="CE15" s="19"/>
+      <c r="CF15" s="19"/>
+      <c r="CG15" s="19"/>
+      <c r="CH15" s="27"/>
+      <c r="CI15" s="19"/>
+      <c r="CJ15" s="19"/>
+      <c r="CK15" s="19"/>
+      <c r="CL15" s="19"/>
+      <c r="CM15" s="19"/>
+      <c r="CN15" s="19"/>
+      <c r="CO15" s="19"/>
+      <c r="CP15" s="19"/>
+      <c r="CQ15" s="19"/>
+      <c r="CR15" s="19"/>
+      <c r="CS15" s="16">
         <v>12121402.403683126</v>
       </c>
-      <c r="BJ15" s="24">
-        <f>BF15*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>2195.2380975900001</v>
-      </c>
-      <c r="BK15" s="24">
-        <f>BG15*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>116.98642182799523</v>
-      </c>
-      <c r="BL15" s="24">
-        <f>BH15*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>1876.777806700615</v>
-      </c>
-      <c r="BM15" s="24">
-        <f>BI15*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="CT15" s="19">
+        <f>CS15*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.12830965738067</v>
       </c>
-      <c r="BN15" s="19">
+      <c r="CU15" s="19"/>
+      <c r="CV15" s="19"/>
+      <c r="CW15" s="13">
         <f>28686634/1000</f>
         <v>28686.633999999998</v>
       </c>
-      <c r="BO15" s="19">
+      <c r="CX15" s="13">
         <v>0</v>
       </c>
-      <c r="BP15" s="19">
+      <c r="CY15" s="13">
         <f>29489845/1000</f>
         <v>29489.845000000001</v>
       </c>
-      <c r="BQ15" s="19">
+      <c r="CZ15" s="13">
         <f>15448717/1000</f>
         <v>15448.717000000001</v>
       </c>
-      <c r="BR15" s="19">
+      <c r="DA15" s="13">
         <v>9178.1299999999992</v>
       </c>
-      <c r="BS15" s="19">
+      <c r="DB15" s="13">
         <v>1841.81</v>
       </c>
-      <c r="BT15" s="19">
+      <c r="DC15" s="13">
         <v>1063.8</v>
       </c>
-      <c r="BU15" s="19">
+      <c r="DD15" s="13">
         <v>4483.7489999999998</v>
       </c>
-      <c r="BV15" s="19">
+      <c r="DE15" s="13">
         <v>160.041</v>
       </c>
-      <c r="BW15" s="19">
+      <c r="DF15" s="13">
         <v>18082.736000000001</v>
       </c>
-      <c r="BX15" s="19">
+      <c r="DG15" s="13">
         <v>3194.373</v>
       </c>
-      <c r="BY15" s="19">
+      <c r="DH15" s="13">
         <v>2794.7489999999998</v>
       </c>
-      <c r="BZ15" s="19">
+      <c r="DI15" s="13">
         <v>130.80000000000001</v>
       </c>
-      <c r="CA15" s="19">
+      <c r="DJ15" s="13">
         <v>0</v>
       </c>
-      <c r="CB15" s="19">
+      <c r="DK15" s="13">
         <v>0</v>
       </c>
-      <c r="CC15" s="19">
+      <c r="DL15" s="13">
         <v>52.42</v>
       </c>
-      <c r="CD15" s="19">
+      <c r="DM15" s="13">
         <v>209.738</v>
       </c>
-      <c r="CE15" s="19">
+      <c r="DN15" s="13">
         <v>0</v>
       </c>
-      <c r="CF15" s="19">
+      <c r="DO15" s="13">
         <v>-5241.9660000000003</v>
       </c>
-      <c r="CG15" s="19">
+      <c r="DP15" s="13">
         <v>-9263.36</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="DQ15" s="13">
         <v>-3548.89</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="DR15" s="13">
         <v>-2871.261</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="DS15" s="13">
         <v>0</v>
       </c>
-      <c r="CK15" s="19">
+      <c r="DT15" s="13">
         <v>0</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="DU15" s="13">
         <v>0</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="DV15" s="13">
         <v>-160.36099999999999</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="DW15" s="13">
         <v>-49.695999999999998</v>
       </c>
-      <c r="CO15" s="19">
-        <f>BN15+BW15+CF15</f>
+      <c r="DX15" s="13">
+        <f t="shared" ref="DX15:EF15" si="29">CW15+DF15+DO15</f>
         <v>41527.403999999995</v>
       </c>
-      <c r="CP15" s="19">
-        <f>BO15+BX15+CG15</f>
+      <c r="DY15" s="13">
+        <f t="shared" si="29"/>
         <v>-6068.987000000001</v>
       </c>
-      <c r="CQ15" s="19">
-        <f>BP15+BY15+CH15</f>
+      <c r="DZ15" s="13">
+        <f t="shared" si="29"/>
         <v>28735.704000000002</v>
       </c>
-      <c r="CR15" s="19">
-        <f>BQ15+BZ15+CI15</f>
+      <c r="EA15" s="13">
+        <f t="shared" si="29"/>
         <v>12708.255999999999</v>
       </c>
-      <c r="CS15" s="19">
-        <f>BR15+CA15+CJ15</f>
+      <c r="EB15" s="13">
+        <f t="shared" si="29"/>
         <v>9178.1299999999992</v>
       </c>
-      <c r="CT15" s="19">
-        <f>BS15+CB15+CK15</f>
+      <c r="EC15" s="13">
+        <f t="shared" si="29"/>
         <v>1841.81</v>
       </c>
-      <c r="CU15" s="19">
-        <f>BT15+CC15+CL15</f>
+      <c r="ED15" s="13">
+        <f t="shared" si="29"/>
         <v>1116.22</v>
       </c>
-      <c r="CV15" s="19">
-        <f>BU15+CD15+CM15</f>
+      <c r="EE15" s="13">
+        <f t="shared" si="29"/>
         <v>4533.1260000000002</v>
       </c>
-      <c r="CW15" s="19">
-        <f>BV15+CE15+CN15</f>
+      <c r="EF15" s="13">
+        <f t="shared" si="29"/>
         <v>110.345</v>
       </c>
-      <c r="CX15" s="19">
+      <c r="EG15" s="13">
         <f>11187524/1000</f>
         <v>11187.523999999999</v>
       </c>
-      <c r="CY15" s="19">
+      <c r="EH15" s="13">
         <v>0</v>
       </c>
-      <c r="CZ15" s="19">
+      <c r="EI15" s="13">
         <f>6910494/1000</f>
         <v>6910.4939999999997</v>
       </c>
-      <c r="DA15" s="19">
+      <c r="EJ15" s="13">
         <f>1220266/1000</f>
         <v>1220.2660000000001</v>
       </c>
-      <c r="DB15" s="19">
+      <c r="EK15" s="13">
         <f>1098884/1000</f>
         <v>1098.884</v>
       </c>
-      <c r="DC15" s="19">
+      <c r="EL15" s="13">
         <f>135006/1000</f>
         <v>135.006</v>
       </c>
-      <c r="DD15" s="19">
+      <c r="EM15" s="13">
         <f>1389024/1000</f>
         <v>1389.0239999999999</v>
       </c>
-      <c r="DE15" s="19">
+      <c r="EN15" s="13">
         <f>573230/1000</f>
         <v>573.23</v>
       </c>
-      <c r="DF15" s="19">
+      <c r="EO15" s="13">
         <v>0</v>
       </c>
-      <c r="DG15" s="19">
+      <c r="EP15" s="13">
         <v>229.53200000000001</v>
       </c>
-      <c r="DH15" s="19">
+      <c r="EQ15" s="13">
         <v>565.51599999999996</v>
       </c>
-      <c r="DI15" s="19">
+      <c r="ER15" s="13">
         <f>818032/1000</f>
         <v>818.03200000000004</v>
       </c>
-      <c r="DJ15" s="19">
+      <c r="ES15" s="13">
         <f>229533/1000</f>
         <v>229.53299999999999</v>
       </c>
-      <c r="DK15" s="19">
+      <c r="ET15" s="13">
         <v>0</v>
       </c>
-      <c r="DL15" s="19">
+      <c r="EU15" s="13">
         <v>0</v>
       </c>
-      <c r="DM15" s="19">
+      <c r="EV15" s="13">
         <v>0</v>
       </c>
-      <c r="DN15" s="19">
+      <c r="EW15" s="13">
         <f>55557/1000</f>
         <v>55.557000000000002</v>
       </c>
-      <c r="DO15" s="19">
+      <c r="EX15" s="13">
         <f>47502/1000</f>
         <v>47.502000000000002</v>
       </c>
-      <c r="DP15" s="19">
+      <c r="EY15" s="13">
         <f>(-8212260-928790)/1000</f>
         <v>-9141.0499999999993</v>
       </c>
-      <c r="DQ15" s="19">
+      <c r="EZ15" s="13">
         <v>-928.78899999999999</v>
       </c>
-      <c r="DR15" s="19">
+      <c r="FA15" s="13">
         <f>-2815765/1000</f>
         <v>-2815.7649999999999</v>
       </c>
-      <c r="DS15" s="19">
+      <c r="FB15" s="13">
         <f>-801916/1000</f>
         <v>-801.91600000000005</v>
       </c>
-      <c r="DT15" s="19">
+      <c r="FC15" s="13">
         <v>0</v>
       </c>
-      <c r="DU15" s="19">
+      <c r="FD15" s="13">
         <v>0</v>
       </c>
-      <c r="DV15" s="19">
+      <c r="FE15" s="13">
         <v>0</v>
       </c>
-      <c r="DW15" s="19">
+      <c r="FF15" s="13">
         <f>-58476/1000</f>
         <v>-58.475999999999999</v>
       </c>
-      <c r="DX15" s="19">
+      <c r="FG15" s="13">
         <f>-221044/1000</f>
         <v>-221.04400000000001</v>
       </c>
-      <c r="DY15" s="19">
-        <f>CX15+DG15+DP15</f>
+      <c r="FH15" s="13">
+        <f t="shared" ref="FH15:FP15" si="30">EG15+EP15+EY15</f>
         <v>2276.0059999999994</v>
       </c>
-      <c r="DZ15" s="19">
-        <f>CY15+DH15+DQ15</f>
+      <c r="FI15" s="13">
+        <f t="shared" si="30"/>
         <v>-363.27300000000002</v>
       </c>
-      <c r="EA15" s="19">
-        <f>CZ15+DI15+DR15</f>
+      <c r="FJ15" s="13">
+        <f t="shared" si="30"/>
         <v>4912.7610000000004</v>
       </c>
-      <c r="EB15" s="19">
-        <f>DA15+DJ15+DS15</f>
+      <c r="FK15" s="13">
+        <f t="shared" si="30"/>
         <v>647.88299999999992</v>
       </c>
-      <c r="EC15" s="19">
-        <f>DB15+DK15+DT15</f>
+      <c r="FL15" s="13">
+        <f t="shared" si="30"/>
         <v>1098.884</v>
       </c>
-      <c r="ED15" s="19">
-        <f>DC15+DL15+DU15</f>
+      <c r="FM15" s="13">
+        <f t="shared" si="30"/>
         <v>135.006</v>
       </c>
-      <c r="EE15" s="19">
-        <f>DD15+DM15+DV15</f>
+      <c r="FN15" s="13">
+        <f t="shared" si="30"/>
         <v>1389.0239999999999</v>
       </c>
-      <c r="EF15" s="19">
-        <f>DE15+DN15+DW15</f>
+      <c r="FO15" s="13">
+        <f t="shared" si="30"/>
         <v>570.31100000000004</v>
       </c>
-      <c r="EG15" s="19">
-        <f>DF15+DO15+DX15</f>
+      <c r="FP15" s="13">
+        <f t="shared" si="30"/>
         <v>-173.542</v>
       </c>
-      <c r="EH15" s="19"/>
-      <c r="EI15" s="19"/>
-      <c r="EJ15" s="19"/>
-      <c r="EK15" s="19"/>
-      <c r="EL15" s="19"/>
-      <c r="EM15" s="19"/>
-      <c r="EN15" s="19"/>
-      <c r="EO15" s="19"/>
-      <c r="EP15" s="19"/>
-      <c r="EQ15" s="19"/>
-      <c r="ER15" s="19"/>
-      <c r="ES15" s="19"/>
-      <c r="ET15" s="19"/>
-      <c r="EU15" s="19"/>
-      <c r="EV15" s="19"/>
-      <c r="EW15" s="19"/>
-      <c r="EX15" s="19"/>
-      <c r="EY15" s="19"/>
-      <c r="EZ15" s="19"/>
-      <c r="FA15" s="19"/>
-      <c r="FB15" s="19"/>
-      <c r="FC15" s="19"/>
-      <c r="FD15" s="19"/>
-      <c r="FE15" s="19"/>
-      <c r="FF15" s="19"/>
-      <c r="FG15" s="19"/>
-      <c r="FH15" s="19"/>
-      <c r="FI15" s="19"/>
-      <c r="FJ15" s="19"/>
-      <c r="FK15" s="19"/>
-      <c r="FL15" s="19"/>
-      <c r="FM15" s="19"/>
-      <c r="FN15" s="19"/>
-      <c r="FO15" s="19"/>
+      <c r="FQ15" s="13"/>
+      <c r="FR15" s="13"/>
+      <c r="FS15" s="13"/>
+      <c r="FT15" s="13"/>
+      <c r="FU15" s="13"/>
+      <c r="FV15" s="13"/>
+      <c r="FW15" s="13"/>
+      <c r="FX15" s="13"/>
+      <c r="FY15" s="13"/>
+      <c r="FZ15" s="13"/>
+      <c r="GA15" s="13"/>
+      <c r="GB15" s="13"/>
+      <c r="GC15" s="13"/>
+      <c r="GD15" s="13"/>
+      <c r="GE15" s="13"/>
+      <c r="GF15" s="13"/>
+      <c r="GG15" s="13"/>
+      <c r="GH15" s="13"/>
+      <c r="GI15" s="13"/>
+      <c r="GJ15" s="13"/>
+      <c r="GK15" s="13"/>
+      <c r="GL15" s="13"/>
+      <c r="GM15" s="13"/>
+      <c r="GN15" s="13"/>
+      <c r="GO15" s="13"/>
+      <c r="GP15" s="13"/>
+      <c r="GQ15" s="13"/>
+      <c r="GR15" s="13"/>
+      <c r="GS15" s="13"/>
+      <c r="GT15" s="13"/>
+      <c r="GU15" s="13"/>
+      <c r="GV15" s="13"/>
+      <c r="GW15" s="13"/>
+      <c r="GX15" s="13"/>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="28"/>
         <v>2019</v>
@@ -4671,7 +5434,7 @@
       <c r="AN16" s="7">
         <v>2.4524497900000002</v>
       </c>
-      <c r="AO16" s="18">
+      <c r="AO16" s="12">
         <f t="shared" si="15"/>
         <v>6.5062681026014184</v>
       </c>
@@ -4683,51 +5446,143 @@
         <f t="shared" si="17"/>
         <v>294.4741014871795</v>
       </c>
-      <c r="AR16" s="18">
+      <c r="AR16" s="12">
         <f t="shared" si="18"/>
         <v>24.802051282051284</v>
       </c>
-      <c r="AS16" s="18">
+      <c r="AS16" s="12">
         <f t="shared" si="26"/>
         <v>8.4224898409720037</v>
       </c>
-      <c r="AT16" s="18">
+      <c r="AT16" s="12">
         <f>68.2+11.1+0.9+0.9</f>
         <v>81.100000000000009</v>
       </c>
-      <c r="AU16" s="18">
+      <c r="AU16" s="12">
         <f t="shared" si="27"/>
         <v>46.425846583279025</v>
       </c>
-      <c r="AV16" s="18">
+      <c r="AV16" s="12">
         <f>AT16-AU16</f>
         <v>34.674153416720984</v>
       </c>
-      <c r="AW16" s="18">
+      <c r="AW16" s="12">
         <f>10.4</f>
         <v>10.4</v>
       </c>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="24"/>
-      <c r="BK16" s="24"/>
-      <c r="BL16" s="24"/>
-      <c r="BM16" s="24"/>
-      <c r="BN16" s="14"/>
-      <c r="BO16" s="14"/>
-      <c r="BQ16"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="29">
+        <f>64782189/1000000*3.6</f>
+        <v>233.2158804</v>
+      </c>
+      <c r="BD16" s="29"/>
+      <c r="BE16" s="29">
+        <f>56108040/1000000*3.6</f>
+        <v>201.988944</v>
+      </c>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="19"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
+      <c r="BR16" s="19"/>
+      <c r="BS16" s="19"/>
+      <c r="BT16" s="16"/>
+      <c r="BU16" s="16"/>
+      <c r="BV16" s="19"/>
+      <c r="BW16" s="19"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="19">
+        <f>SUM(BZ16:CC16)</f>
+        <v>230.60000000000002</v>
+      </c>
+      <c r="BZ16" s="28">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="CA16" s="34">
+        <v>63.9</v>
+      </c>
+      <c r="CB16" s="34">
+        <v>94.3</v>
+      </c>
+      <c r="CC16" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="CD16" s="19">
+        <v>222</v>
+      </c>
+      <c r="CE16" s="19">
+        <v>216</v>
+      </c>
+      <c r="CF16" s="19">
+        <v>389</v>
+      </c>
+      <c r="CG16" s="19">
+        <v>512</v>
+      </c>
+      <c r="CH16" s="32">
+        <v>1346</v>
+      </c>
+      <c r="CI16" s="19">
+        <f>(14572+14675)/1000</f>
+        <v>29.247</v>
+      </c>
+      <c r="CJ16" s="19">
+        <f>140781/1000</f>
+        <v>140.78100000000001</v>
+      </c>
+      <c r="CK16" s="19">
+        <f>1130806/1000</f>
+        <v>1130.806</v>
+      </c>
+      <c r="CL16" s="19">
+        <f>122333/1000</f>
+        <v>122.333</v>
+      </c>
+      <c r="CM16" s="19">
+        <f>39870/1000</f>
+        <v>39.869999999999997</v>
+      </c>
+      <c r="CN16" s="19">
+        <f>975805/1000</f>
+        <v>975.80499999999995</v>
+      </c>
+      <c r="CO16" s="19">
+        <f>399676/1000</f>
+        <v>399.67599999999999</v>
+      </c>
+      <c r="CP16" s="19">
+        <f>260404/1000</f>
+        <v>260.404</v>
+      </c>
+      <c r="CQ16" s="19">
+        <f>121837/1000</f>
+        <v>121.837</v>
+      </c>
+      <c r="CR16" s="19">
+        <f>152643/1000</f>
+        <v>152.643</v>
+      </c>
+      <c r="CS16" s="16"/>
+      <c r="CT16" s="19"/>
+      <c r="CU16" s="19"/>
+      <c r="CV16" s="19"/>
+      <c r="CW16" s="10"/>
+      <c r="CX16" s="10"/>
+      <c r="CZ16"/>
     </row>
-    <row r="17" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="28"/>
         <v>2020</v>
@@ -4871,7 +5726,7 @@
       <c r="AN17" s="7">
         <v>2.5376691600000001</v>
       </c>
-      <c r="AO17" s="18">
+      <c r="AO17" s="12">
         <f t="shared" si="15"/>
         <v>5.524499835841314</v>
       </c>
@@ -4883,69 +5738,124 @@
         <f t="shared" si="17"/>
         <v>259.45733893719807</v>
       </c>
-      <c r="AR17" s="18">
+      <c r="AR17" s="12">
         <f t="shared" si="18"/>
         <v>25.875362318840583</v>
       </c>
-      <c r="AS17" s="18">
+      <c r="AS17" s="12">
         <f t="shared" si="26"/>
         <v>9.9728774005131307</v>
       </c>
-      <c r="AT17" s="18">
+      <c r="AT17" s="12">
         <f>69.4+1+2.6+9.7</f>
         <v>82.7</v>
       </c>
-      <c r="AU17" s="18">
+      <c r="AU17" s="12">
         <f t="shared" si="27"/>
         <v>52.483347597015594</v>
       </c>
-      <c r="AV17" s="18">
+      <c r="AV17" s="12">
         <f>AT17-AU17</f>
         <v>30.216652402984408</v>
       </c>
-      <c r="AW17" s="18">
+      <c r="AW17" s="12">
         <f>N17-AV17</f>
         <v>5.7531297737341305</v>
       </c>
-      <c r="AX17" s="14">
+      <c r="AX17" s="10">
         <v>46.5</v>
       </c>
-      <c r="AY17" s="14">
+      <c r="AY17" s="10">
         <v>35.6</v>
       </c>
-      <c r="AZ17" s="14">
+      <c r="AZ17" s="10">
         <v>16</v>
       </c>
-      <c r="BA17" s="14">
+      <c r="BA17" s="10">
         <f>4/5*100</f>
         <v>80</v>
       </c>
-      <c r="BB17" s="14">
+      <c r="BB17" s="10">
         <f>1/5*100</f>
         <v>20</v>
       </c>
-      <c r="BC17" s="14">
-        <v>5889369</v>
-      </c>
-      <c r="BD17" s="14">
-        <v>1862345</v>
-      </c>
-      <c r="BE17" s="14">
-        <v>2060146</v>
-      </c>
-      <c r="BF17" s="23"/>
-      <c r="BG17" s="23"/>
-      <c r="BH17" s="23"/>
-      <c r="BI17" s="23"/>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="14"/>
-      <c r="BO17" s="14"/>
-      <c r="BQ17"/>
+      <c r="BC17" s="29">
+        <f>70947057/1000000*3.6</f>
+        <v>255.40940520000001</v>
+      </c>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29">
+        <f>63237053/1000000*3.6</f>
+        <v>227.65339080000001</v>
+      </c>
+      <c r="BF17" s="29">
+        <f>5889369/1000000*3.6</f>
+        <v>21.2017284</v>
+      </c>
+      <c r="BG17" s="29">
+        <f>1862345/1000000*3.6</f>
+        <v>6.7044420000000002</v>
+      </c>
+      <c r="BH17" s="29">
+        <f>2060146/1000000*3.6</f>
+        <v>7.4165255999999999</v>
+      </c>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="19"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
+      <c r="BR17" s="19"/>
+      <c r="BS17" s="19"/>
+      <c r="BT17" s="16"/>
+      <c r="BU17" s="16"/>
+      <c r="BV17" s="19"/>
+      <c r="BW17" s="19"/>
+      <c r="BX17" s="29"/>
+      <c r="BY17" s="19">
+        <f>SUM(BZ17:CC17)</f>
+        <v>215.8</v>
+      </c>
+      <c r="BZ17" s="28">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="CA17" s="34">
+        <v>61.5</v>
+      </c>
+      <c r="CB17" s="34">
+        <v>80.7</v>
+      </c>
+      <c r="CC17" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="CD17" s="19"/>
+      <c r="CE17" s="19"/>
+      <c r="CF17" s="19"/>
+      <c r="CG17" s="19"/>
+      <c r="CH17" s="27"/>
+      <c r="CI17" s="19"/>
+      <c r="CJ17" s="19"/>
+      <c r="CK17" s="19"/>
+      <c r="CL17" s="19"/>
+      <c r="CM17" s="19"/>
+      <c r="CN17" s="19"/>
+      <c r="CO17" s="19"/>
+      <c r="CP17" s="19"/>
+      <c r="CQ17" s="19"/>
+      <c r="CR17" s="19"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="19"/>
+      <c r="CU17" s="19"/>
+      <c r="CV17" s="19"/>
+      <c r="CW17" s="10"/>
+      <c r="CX17" s="10"/>
+      <c r="CZ17"/>
     </row>
-    <row r="18" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="28"/>
         <v>2021</v>
@@ -5083,7 +5993,7 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="18">
+      <c r="AO18" s="12">
         <f t="shared" si="15"/>
         <v>6.1284314831376934</v>
       </c>
@@ -5095,70 +6005,125 @@
         <f t="shared" si="17"/>
         <v>283.96825396825398</v>
       </c>
-      <c r="AR18" s="18">
+      <c r="AR18" s="12">
         <f t="shared" si="18"/>
         <v>28.339682539682542</v>
       </c>
-      <c r="AS18" s="18">
+      <c r="AS18" s="12">
         <f t="shared" si="26"/>
         <v>9.9798770262716605</v>
       </c>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18">
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12">
         <f t="shared" si="27"/>
         <v>50.854748584703763</v>
       </c>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="15"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14">
-        <v>6492924</v>
-      </c>
-      <c r="BD18" s="14">
-        <v>1952249</v>
-      </c>
-      <c r="BE18" s="14">
-        <v>2005366</v>
-      </c>
-      <c r="BF18" s="23">
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="29">
+        <f>72622313/1000000*3.6</f>
+        <v>261.44032680000004</v>
+      </c>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29">
+        <f>64371047/1000000*3.6</f>
+        <v>231.73576920000002</v>
+      </c>
+      <c r="BF18" s="29">
+        <f>6492924/1000000*3.6</f>
+        <v>23.374526400000001</v>
+      </c>
+      <c r="BG18" s="29">
+        <f>1952249/1000000*3.6</f>
+        <v>7.0280963999999999</v>
+      </c>
+      <c r="BH18" s="29">
+        <f>2005366/1000000*3.6</f>
+        <v>7.2193176000000001</v>
+      </c>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="19">
+        <f>BK18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2450.5880675999997</v>
+      </c>
+      <c r="BK18" s="16">
         <v>65699412</v>
       </c>
-      <c r="BG18" s="23">
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16">
         <v>1335922.0765555417</v>
       </c>
-      <c r="BH18" s="23">
+      <c r="BR18" s="19">
+        <f>BQ18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>49.829893455521713</v>
+      </c>
+      <c r="BS18" s="19"/>
+      <c r="BT18" s="16"/>
+      <c r="BU18" s="16">
         <v>55136889.371934704</v>
       </c>
-      <c r="BI18" s="23">
+      <c r="BV18" s="19">
+        <f>BU18*1000*[1]Sheet1!$B$134/1000000</f>
+        <v>2056.6059735731646</v>
+      </c>
+      <c r="BW18" s="19"/>
+      <c r="BX18" s="29"/>
+      <c r="BY18" s="19">
+        <f>SUM(BZ18:CC18)</f>
+        <v>215.6</v>
+      </c>
+      <c r="BZ18" s="28">
+        <v>75.7</v>
+      </c>
+      <c r="CA18" s="34">
+        <v>61.2</v>
+      </c>
+      <c r="CB18" s="34">
+        <v>78</v>
+      </c>
+      <c r="CC18" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="CD18" s="19"/>
+      <c r="CE18" s="19"/>
+      <c r="CF18" s="19"/>
+      <c r="CG18" s="19"/>
+      <c r="CH18" s="27"/>
+      <c r="CI18" s="19"/>
+      <c r="CJ18" s="19"/>
+      <c r="CK18" s="19"/>
+      <c r="CL18" s="19"/>
+      <c r="CM18" s="19"/>
+      <c r="CN18" s="19"/>
+      <c r="CO18" s="19"/>
+      <c r="CP18" s="19"/>
+      <c r="CQ18" s="19"/>
+      <c r="CR18" s="19"/>
+      <c r="CS18" s="16">
         <v>12142592.704620846</v>
       </c>
-      <c r="BJ18" s="24">
-        <f>BF18*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>2450.5880675999997</v>
-      </c>
-      <c r="BK18" s="24">
-        <f>BG18*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>49.829893455521713</v>
-      </c>
-      <c r="BL18" s="24">
-        <f>BH18*1000*[1]Sheet1!$B$134/1000000</f>
-        <v>2056.6059735731646</v>
-      </c>
-      <c r="BM18" s="24">
-        <f>BI18*1000*[1]Sheet1!$B$134/1000000</f>
+      <c r="CT18" s="19">
+        <f>CS18*1000*[1]Sheet1!$B$134/1000000</f>
         <v>452.91870788235752</v>
       </c>
-      <c r="BN18" s="14"/>
-      <c r="BO18" s="14"/>
-      <c r="BQ18"/>
-      <c r="CX18" s="14"/>
-      <c r="CY18" s="14"/>
+      <c r="CU18" s="19"/>
+      <c r="CV18" s="19"/>
+      <c r="CW18" s="10"/>
+      <c r="CX18" s="10"/>
+      <c r="CZ18"/>
+      <c r="EG18" s="10"/>
+      <c r="EH18" s="10"/>
     </row>
-    <row r="19" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
@@ -5200,44 +6165,124 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="18"/>
+      <c r="AO19" s="12"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="15"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14">
-        <v>5552551</v>
-      </c>
-      <c r="BD19" s="14">
-        <v>1675964</v>
-      </c>
-      <c r="BE19" s="14">
-        <v>1743192</v>
-      </c>
-      <c r="BF19" s="23"/>
-      <c r="BG19" s="23"/>
-      <c r="BH19" s="23"/>
-      <c r="BI19" s="23"/>
-      <c r="BJ19" s="24"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="14"/>
-      <c r="BO19" s="14"/>
-      <c r="BQ19"/>
-      <c r="CX19" s="14"/>
-      <c r="CY19" s="14"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="29">
+        <f>70197274/1000000*3.6</f>
+        <v>252.71018639999997</v>
+      </c>
+      <c r="BD19" s="29">
+        <f>64696906/1000000*3.6</f>
+        <v>232.90886159999999</v>
+      </c>
+      <c r="BE19" s="29">
+        <f>63232129/1000000*3.6</f>
+        <v>227.6356644</v>
+      </c>
+      <c r="BF19" s="29">
+        <f>5552551/1000000*3.6</f>
+        <v>19.9891836</v>
+      </c>
+      <c r="BG19" s="29">
+        <f>1675964/1000000*3.6</f>
+        <v>6.0334704000000006</v>
+      </c>
+      <c r="BH19" s="29">
+        <f>1743192/1000000*3.6</f>
+        <v>6.2754912000000003</v>
+      </c>
+      <c r="BI19" s="29">
+        <f>62479772/1000000*3.6</f>
+        <v>224.92717919999998</v>
+      </c>
+      <c r="BJ19" s="19"/>
+      <c r="BK19" s="16"/>
+      <c r="BL19" s="16"/>
+      <c r="BM19" s="16"/>
+      <c r="BN19" s="16"/>
+      <c r="BO19" s="16"/>
+      <c r="BP19" s="16"/>
+      <c r="BQ19" s="16"/>
+      <c r="BR19" s="19"/>
+      <c r="BS19" s="19"/>
+      <c r="BT19" s="16"/>
+      <c r="BU19" s="16"/>
+      <c r="BV19" s="19"/>
+      <c r="BW19" s="19"/>
+      <c r="BX19" s="29"/>
+      <c r="BY19" s="19"/>
+      <c r="BZ19" s="19"/>
+      <c r="CA19" s="19"/>
+      <c r="CB19" s="19"/>
+      <c r="CC19" s="19"/>
+      <c r="CD19" s="19"/>
+      <c r="CE19" s="19"/>
+      <c r="CF19" s="19"/>
+      <c r="CG19" s="19"/>
+      <c r="CH19" s="19"/>
+      <c r="CI19" s="19">
+        <f>(15675+11931)/1000</f>
+        <v>27.606000000000002</v>
+      </c>
+      <c r="CJ19" s="19">
+        <f>163783/1000</f>
+        <v>163.78299999999999</v>
+      </c>
+      <c r="CK19" s="19">
+        <f>1112541/1000</f>
+        <v>1112.5409999999999</v>
+      </c>
+      <c r="CL19" s="19">
+        <f>133322/1000</f>
+        <v>133.322</v>
+      </c>
+      <c r="CM19" s="19">
+        <f>25455/1000</f>
+        <v>25.454999999999998</v>
+      </c>
+      <c r="CN19" s="19">
+        <f>942789/1000</f>
+        <v>942.78899999999999</v>
+      </c>
+      <c r="CO19" s="19">
+        <f>370396/1000</f>
+        <v>370.39600000000002</v>
+      </c>
+      <c r="CP19" s="19">
+        <f>238868/1000</f>
+        <v>238.86799999999999</v>
+      </c>
+      <c r="CQ19" s="19">
+        <f>125264/1000</f>
+        <v>125.264</v>
+      </c>
+      <c r="CR19" s="19">
+        <f>165706/1000</f>
+        <v>165.70599999999999</v>
+      </c>
+      <c r="CS19" s="16"/>
+      <c r="CT19" s="19"/>
+      <c r="CU19" s="19"/>
+      <c r="CV19" s="19"/>
+      <c r="CW19" s="10"/>
+      <c r="CX19" s="10"/>
+      <c r="CZ19"/>
+      <c r="EG19" s="10"/>
+      <c r="EH19" s="10"/>
     </row>
-    <row r="20" spans="1:171" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:206" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2023</v>
       </c>
@@ -5279,915 +6324,1538 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="18"/>
+      <c r="AO20" s="12"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="15"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="23"/>
-      <c r="BG20" s="23"/>
-      <c r="BH20" s="23"/>
-      <c r="BI20" s="23"/>
-      <c r="BJ20" s="24"/>
-      <c r="BK20" s="24"/>
-      <c r="BL20" s="24"/>
-      <c r="BM20" s="24"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BQ20"/>
-      <c r="CX20" s="14"/>
-      <c r="CY20" s="14"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="19"/>
+      <c r="BS20" s="19"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="19"/>
+      <c r="BW20" s="19"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="19"/>
+      <c r="BZ20" s="19"/>
+      <c r="CA20" s="19"/>
+      <c r="CB20" s="19"/>
+      <c r="CC20" s="19"/>
+      <c r="CD20" s="19"/>
+      <c r="CE20" s="19"/>
+      <c r="CF20" s="19"/>
+      <c r="CG20" s="19"/>
+      <c r="CH20" s="27"/>
+      <c r="CI20" s="19"/>
+      <c r="CJ20" s="19"/>
+      <c r="CK20" s="19"/>
+      <c r="CL20" s="19"/>
+      <c r="CM20" s="19"/>
+      <c r="CN20" s="19"/>
+      <c r="CO20" s="19"/>
+      <c r="CP20" s="19"/>
+      <c r="CQ20" s="19"/>
+      <c r="CR20" s="19"/>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="19"/>
+      <c r="CU20" s="19"/>
+      <c r="CV20" s="19"/>
+      <c r="CW20" s="10"/>
+      <c r="CX20" s="10"/>
+      <c r="CZ20"/>
+      <c r="EG20" s="10"/>
+      <c r="EH20" s="10"/>
     </row>
-    <row r="21" spans="1:171" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="11">
+    <row r="21" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="19"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="16"/>
+      <c r="BM21" s="16"/>
+      <c r="BN21" s="16"/>
+      <c r="BO21" s="16"/>
+      <c r="BP21" s="16"/>
+      <c r="BQ21" s="16"/>
+      <c r="BR21" s="19"/>
+      <c r="BS21" s="19"/>
+      <c r="BT21" s="16"/>
+      <c r="BU21" s="16"/>
+      <c r="BV21" s="19"/>
+      <c r="BW21" s="19"/>
+      <c r="BX21" s="29"/>
+      <c r="BY21" s="19"/>
+      <c r="BZ21" s="19"/>
+      <c r="CA21" s="19"/>
+      <c r="CB21" s="19"/>
+      <c r="CC21" s="19"/>
+      <c r="CD21" s="19"/>
+      <c r="CE21" s="19"/>
+      <c r="CF21" s="19"/>
+      <c r="CG21" s="19"/>
+      <c r="CH21" s="27"/>
+      <c r="CI21" s="19"/>
+      <c r="CJ21" s="19"/>
+      <c r="CK21" s="19"/>
+      <c r="CL21" s="19"/>
+      <c r="CM21" s="19"/>
+      <c r="CN21" s="19"/>
+      <c r="CO21" s="19"/>
+      <c r="CP21" s="19"/>
+      <c r="CQ21" s="19"/>
+      <c r="CR21" s="19"/>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="19"/>
+      <c r="CU21" s="19"/>
+      <c r="CV21" s="19"/>
+      <c r="CW21" s="10"/>
+      <c r="CX21" s="10"/>
+      <c r="CZ21"/>
+      <c r="EG21" s="10"/>
+      <c r="EH21" s="10"/>
+    </row>
+    <row r="22" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="29"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="29"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="16"/>
+      <c r="BL22" s="16"/>
+      <c r="BM22" s="16"/>
+      <c r="BN22" s="16"/>
+      <c r="BO22" s="16"/>
+      <c r="BP22" s="16"/>
+      <c r="BQ22" s="16"/>
+      <c r="BR22" s="19"/>
+      <c r="BS22" s="19"/>
+      <c r="BT22" s="16"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="19"/>
+      <c r="BW22" s="19"/>
+      <c r="BX22" s="29"/>
+      <c r="BY22" s="19"/>
+      <c r="BZ22" s="19"/>
+      <c r="CA22" s="19"/>
+      <c r="CB22" s="19"/>
+      <c r="CC22" s="19"/>
+      <c r="CD22" s="19"/>
+      <c r="CE22" s="19"/>
+      <c r="CF22" s="19"/>
+      <c r="CG22" s="19"/>
+      <c r="CH22" s="27"/>
+      <c r="CI22" s="19"/>
+      <c r="CJ22" s="19"/>
+      <c r="CK22" s="19"/>
+      <c r="CL22" s="19"/>
+      <c r="CM22" s="19"/>
+      <c r="CN22" s="19"/>
+      <c r="CO22" s="19"/>
+      <c r="CP22" s="19"/>
+      <c r="CQ22" s="19"/>
+      <c r="CR22" s="19"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="19"/>
+      <c r="CU22" s="19"/>
+      <c r="CV22" s="19"/>
+      <c r="CW22" s="10"/>
+      <c r="CX22" s="10"/>
+      <c r="CZ22"/>
+      <c r="EG22" s="10"/>
+      <c r="EH22" s="10"/>
+    </row>
+    <row r="23" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21">
         <f>AVERAGE(B2:B18)</f>
         <v>0.23966117647058821</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="21">
         <f>AVERAGE(C2:C18)</f>
         <v>0.18933333333333335</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="21">
         <f>AVERAGE(D2:D18)</f>
         <v>68.092420147533332</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" ref="E21:AZ21" si="29">AVERAGE(E2:E18)</f>
+      <c r="E23" s="21">
+        <f t="shared" ref="E23:AZ23" si="31">AVERAGE(E2:E18)</f>
         <v>64.374399999999994</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="21">
         <f>AVERAGE(F2:F18)</f>
         <v>3.7180201475333332</v>
       </c>
-      <c r="G21" s="11">
-        <f t="shared" si="29"/>
+      <c r="G23" s="21">
+        <f t="shared" si="31"/>
         <v>0.27175922899999999</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" si="29"/>
+      <c r="H23" s="21">
+        <f t="shared" si="31"/>
         <v>36.399482528333337</v>
       </c>
-      <c r="I21" s="11">
-        <f t="shared" si="29"/>
+      <c r="I23" s="21">
+        <f t="shared" si="31"/>
         <v>13.3536975952</v>
       </c>
-      <c r="J21" s="11">
-        <f t="shared" si="29"/>
+      <c r="J23" s="21">
+        <f t="shared" si="31"/>
         <v>13.709595275933333</v>
       </c>
-      <c r="K21" s="17">
-        <f t="shared" si="29"/>
+      <c r="K23" s="22">
+        <f t="shared" si="31"/>
         <v>53.662396394443569</v>
       </c>
-      <c r="L21" s="17">
-        <f t="shared" si="29"/>
+      <c r="L23" s="22">
+        <f t="shared" si="31"/>
         <v>20.121101125914585</v>
       </c>
-      <c r="M21" s="17">
-        <f t="shared" si="29"/>
+      <c r="M23" s="22">
+        <f t="shared" si="31"/>
         <v>19.417674250216255</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N23" s="22">
         <f>AVERAGE(N2:N18)</f>
         <v>39.538775376130843</v>
       </c>
-      <c r="O21" s="17">
-        <f t="shared" si="29"/>
+      <c r="O23" s="22">
+        <f t="shared" si="31"/>
         <v>5.4547291541230232</v>
       </c>
-      <c r="P21" s="11">
-        <f t="shared" si="29"/>
+      <c r="P23" s="21">
+        <f t="shared" si="31"/>
         <v>24.309411764705878</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q23" s="21">
         <f>AVERAGE(Q2:Q18)</f>
         <v>4.7164705882352953</v>
       </c>
-      <c r="R21" s="11">
-        <f t="shared" ref="R21:AD21" si="30">AVERAGE(R2:R18)</f>
+      <c r="R23" s="21">
+        <f t="shared" ref="R23:AD23" si="32">AVERAGE(R2:R18)</f>
         <v>1.7823529411764707</v>
       </c>
-      <c r="S21" s="11">
-        <f t="shared" si="30"/>
+      <c r="S23" s="21">
+        <f t="shared" si="32"/>
         <v>8.2447058823529407</v>
       </c>
-      <c r="T21" s="11">
-        <f t="shared" si="30"/>
+      <c r="T23" s="21">
+        <f t="shared" si="32"/>
         <v>2.6470588235294117</v>
       </c>
-      <c r="U21" s="11">
-        <f t="shared" si="30"/>
+      <c r="U23" s="21">
+        <f t="shared" si="32"/>
         <v>3.1602235294117644</v>
       </c>
-      <c r="V21" s="11">
-        <f t="shared" si="30"/>
+      <c r="V23" s="21">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W21" s="11">
-        <f t="shared" si="30"/>
+      <c r="W23" s="21">
+        <f t="shared" si="32"/>
         <v>0.23170588235294121</v>
       </c>
-      <c r="X21" s="11">
-        <f t="shared" si="30"/>
+      <c r="X23" s="21">
+        <f t="shared" si="32"/>
         <v>1.0718117647058825</v>
       </c>
-      <c r="Y21" s="11">
-        <f t="shared" si="30"/>
+      <c r="Y23" s="21">
+        <f t="shared" si="32"/>
         <v>0.34411764705882358</v>
       </c>
-      <c r="Z21" s="11">
-        <f t="shared" si="30"/>
+      <c r="Z23" s="21">
+        <f t="shared" si="32"/>
         <v>27.469635294117648</v>
       </c>
-      <c r="AA21" s="11">
-        <f t="shared" si="30"/>
+      <c r="AA23" s="21">
+        <f t="shared" si="32"/>
         <v>2.0140588235294121</v>
       </c>
-      <c r="AB21" s="11">
-        <f t="shared" si="30"/>
+      <c r="AB23" s="21">
+        <f t="shared" si="32"/>
         <v>9.3165176470588218</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AC23" s="21">
         <f>AVERAGE(AC2:AC18)</f>
         <v>2.9911764705882353</v>
       </c>
-      <c r="AD21" s="11">
-        <f t="shared" si="30"/>
+      <c r="AD23" s="21">
+        <f t="shared" si="32"/>
         <v>46.507858823529403</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE23" s="22">
         <f>AVERAGE(AE2:AE18)</f>
         <v>6.8979596866944624</v>
       </c>
-      <c r="AF21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AF23" s="21">
+        <f t="shared" si="31"/>
         <v>12.154705882352939</v>
       </c>
-      <c r="AG21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AG23" s="21">
+        <f t="shared" si="31"/>
         <v>2.3582352941176477</v>
       </c>
-      <c r="AH21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AH23" s="21">
+        <f t="shared" si="31"/>
         <v>0.89117647058823535</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI23" s="21">
         <f>AVERAGE(AI2:AI18)</f>
         <v>4.1223529411764703</v>
       </c>
-      <c r="AJ21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AJ23" s="21">
+        <f t="shared" si="31"/>
         <v>1.3235294117647058</v>
       </c>
-      <c r="AK21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AK23" s="21">
+        <f t="shared" si="31"/>
         <v>20.849999999999994</v>
       </c>
-      <c r="AL21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AL23" s="21">
+        <f t="shared" si="31"/>
         <v>2.0905484078571428</v>
       </c>
-      <c r="AM21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AM23" s="21">
+        <f t="shared" si="31"/>
         <v>0.6469714757142857</v>
       </c>
-      <c r="AN21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AN23" s="21">
+        <f t="shared" si="31"/>
         <v>2.8892456778571431</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO23" s="21">
         <f>AVERAGE(AO2:AO18)</f>
         <v>5.7780667834392849</v>
       </c>
-      <c r="AP21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AP23" s="21">
+        <f t="shared" si="31"/>
         <v>342.30730390915801</v>
       </c>
-      <c r="AQ21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AQ23" s="21">
+        <f t="shared" si="31"/>
         <v>356.45503397150969</v>
       </c>
-      <c r="AR21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AR23" s="21">
+        <f t="shared" si="31"/>
         <v>17.055685764521638</v>
       </c>
-      <c r="AS21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AS23" s="21">
+        <f t="shared" si="31"/>
         <v>5.0514232427164805</v>
       </c>
-      <c r="AT21" s="17">
+      <c r="AT23" s="22">
         <f>AVERAGE(AT2:AT18)</f>
         <v>82.740000000000009</v>
       </c>
-      <c r="AU21" s="17">
-        <f t="shared" si="29"/>
+      <c r="AU23" s="22">
+        <f t="shared" si="31"/>
         <v>46.76443670774912</v>
       </c>
-      <c r="AV21" s="17">
+      <c r="AV23" s="22">
         <f>AVERAGE(AV2:AV18)</f>
         <v>35.992658125609722</v>
       </c>
-      <c r="AW21" s="17">
+      <c r="AW23" s="22">
         <f>AVERAGE(AW2:AW18)</f>
         <v>8.1706259547468267</v>
       </c>
-      <c r="AX21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AX23" s="21">
+        <f t="shared" si="31"/>
         <v>46.5</v>
       </c>
-      <c r="AY21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AY23" s="21">
+        <f t="shared" si="31"/>
         <v>35.6</v>
       </c>
-      <c r="AZ21" s="11">
-        <f t="shared" si="29"/>
+      <c r="AZ23" s="21">
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="BA21" s="16"/>
-      <c r="BB21" s="16"/>
-      <c r="BC21" s="11">
-        <f>AVERAGE(BC2:BC18)</f>
-        <v>6191146.5</v>
-      </c>
-      <c r="BD21" s="16"/>
-      <c r="BE21" s="16"/>
-      <c r="BF21" s="25">
-        <f t="shared" ref="BF21:BM21" si="31">AVERAGE(BF2:BF18)</f>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="30">
+        <f t="shared" ref="BC23:CP23" si="33">AVERAGE(BC13:BC22)</f>
+        <v>250.79719031999997</v>
+      </c>
+      <c r="BD23" s="30">
+        <f t="shared" si="33"/>
+        <v>232.90886159999999</v>
+      </c>
+      <c r="BE23" s="30">
+        <f t="shared" si="33"/>
+        <v>222.29236512000003</v>
+      </c>
+      <c r="BF23" s="30">
+        <f t="shared" si="33"/>
+        <v>21.521812800000003</v>
+      </c>
+      <c r="BG23" s="30">
+        <f t="shared" si="33"/>
+        <v>6.5886696000000002</v>
+      </c>
+      <c r="BH23" s="30">
+        <f t="shared" si="33"/>
+        <v>6.9704448000000001</v>
+      </c>
+      <c r="BI23" s="30">
+        <f t="shared" si="33"/>
+        <v>224.92717919999998</v>
+      </c>
+      <c r="BJ23" s="25">
+        <f>AVERAGE(BJ13:BJ22)</f>
+        <v>2322.9130825949997</v>
+      </c>
+      <c r="BK23" s="25">
+        <f>AVERAGE(BK13:BK22)</f>
         <v>62276490.149999999</v>
       </c>
-      <c r="BG21" s="25">
-        <f t="shared" si="31"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25">
+        <f>AVERAGE(BQ13:BQ22)</f>
         <v>2236143.6365082702</v>
       </c>
-      <c r="BH21" s="25">
-        <f t="shared" si="31"/>
+      <c r="BR23" s="25">
+        <f>AVERAGE(BR13:BR22)</f>
+        <v>83.408157641758464</v>
+      </c>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
+      <c r="BU23" s="25">
+        <f>AVERAGE(BU13:BU22)</f>
         <v>52726324.132356286</v>
       </c>
-      <c r="BI21" s="25">
-        <f t="shared" si="31"/>
+      <c r="BV23" s="25">
+        <f>AVERAGE(BV13:BV22)</f>
+        <v>1966.6918901368899</v>
+      </c>
+      <c r="BW23" s="25"/>
+      <c r="BX23" s="30"/>
+      <c r="BY23" s="25">
+        <f t="shared" si="33"/>
+        <v>222.22500000000002</v>
+      </c>
+      <c r="BZ23" s="25">
+        <f t="shared" si="33"/>
+        <v>72.55</v>
+      </c>
+      <c r="CA23" s="25">
+        <f t="shared" si="33"/>
+        <v>62.349999999999994</v>
+      </c>
+      <c r="CB23" s="25">
+        <f t="shared" si="33"/>
+        <v>86.575000000000003</v>
+      </c>
+      <c r="CC23" s="25">
+        <f t="shared" si="33"/>
+        <v>0.75</v>
+      </c>
+      <c r="CD23" s="25">
+        <f t="shared" si="33"/>
+        <v>222</v>
+      </c>
+      <c r="CE23" s="25">
+        <f t="shared" si="33"/>
+        <v>216</v>
+      </c>
+      <c r="CF23" s="25">
+        <f t="shared" si="33"/>
+        <v>389</v>
+      </c>
+      <c r="CG23" s="25">
+        <f t="shared" si="33"/>
+        <v>512</v>
+      </c>
+      <c r="CH23" s="25">
+        <f t="shared" si="33"/>
+        <v>1346</v>
+      </c>
+      <c r="CI23" s="25">
+        <f t="shared" si="33"/>
+        <v>28.426500000000001</v>
+      </c>
+      <c r="CJ23" s="25">
+        <f t="shared" si="33"/>
+        <v>152.28199999999998</v>
+      </c>
+      <c r="CK23" s="25">
+        <f t="shared" si="33"/>
+        <v>1121.6734999999999</v>
+      </c>
+      <c r="CL23" s="25">
+        <f t="shared" si="33"/>
+        <v>127.8275</v>
+      </c>
+      <c r="CM23" s="25">
+        <f t="shared" si="33"/>
+        <v>32.662499999999994</v>
+      </c>
+      <c r="CN23" s="25">
+        <f t="shared" si="33"/>
+        <v>959.29700000000003</v>
+      </c>
+      <c r="CO23" s="25">
+        <f t="shared" si="33"/>
+        <v>385.036</v>
+      </c>
+      <c r="CP23" s="25">
+        <f t="shared" si="33"/>
+        <v>249.636</v>
+      </c>
+      <c r="CQ23" s="25">
+        <f t="shared" ref="CQ23:CR23" si="34">AVERAGE(CQ13:CQ22)</f>
+        <v>123.5505</v>
+      </c>
+      <c r="CR23" s="25">
+        <f t="shared" si="34"/>
+        <v>159.17449999999999</v>
+      </c>
+      <c r="CS23" s="25">
+        <f>AVERAGE(CS13:CS22)</f>
         <v>12131997.554151986</v>
       </c>
-      <c r="BJ21" s="26">
-        <f t="shared" si="31"/>
-        <v>2322.9130825949997</v>
-      </c>
-      <c r="BK21" s="26">
-        <f t="shared" si="31"/>
-        <v>83.408157641758464</v>
-      </c>
-      <c r="BL21" s="26">
-        <f t="shared" si="31"/>
-        <v>1966.6918901368899</v>
-      </c>
-      <c r="BM21" s="26">
-        <f t="shared" si="31"/>
+      <c r="CT23" s="25">
+        <f>AVERAGE(CT13:CT22)</f>
         <v>452.52350876986907</v>
       </c>
-      <c r="BN21" s="16"/>
-      <c r="BO21" s="16"/>
-      <c r="BP21" s="13"/>
-      <c r="CX21" s="16"/>
-      <c r="CY21" s="16"/>
-      <c r="CZ21" s="13"/>
-      <c r="EH21" s="13"/>
+      <c r="CU23" s="25"/>
+      <c r="CV23" s="25"/>
+      <c r="CW23" s="23"/>
+      <c r="CX23" s="23"/>
+      <c r="CY23" s="26"/>
+      <c r="EG23" s="23"/>
+      <c r="EH23" s="23"/>
+      <c r="EI23" s="26"/>
+      <c r="FQ23" s="26"/>
     </row>
-    <row r="22" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" t="s">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="Q24" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AU24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AM22" s="1" t="s">
+      <c r="AV24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AN22" s="1" t="s">
+      <c r="AW24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AO22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF22" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG22" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH22" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI22" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ22" s="15"/>
-      <c r="BK22" s="15"/>
-      <c r="BL22" s="15"/>
-      <c r="BM22" s="15"/>
-      <c r="BN22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO22" s="14"/>
-      <c r="BP22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BQ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BR22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BT22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BU22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BV22" s="14"/>
-      <c r="BW22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX22" s="14"/>
-      <c r="BY22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="BZ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CA22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CB22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CC22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CD22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CE22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CF22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG22" s="14"/>
-      <c r="CH22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CI22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CJ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CK22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CL22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CM22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CN22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CO22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CP22" s="14"/>
-      <c r="CQ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CR22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CS22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CT22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CU22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CV22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CX22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="CY22" s="14"/>
-      <c r="CZ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DA22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DB22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DC22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DD22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DE22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DF22" s="14"/>
-      <c r="DG22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DH22" s="14"/>
-      <c r="DI22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DJ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DK22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL22" s="14"/>
-      <c r="DM22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DN22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DP22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DQ22" s="14"/>
-      <c r="DR22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DS22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DT22" s="14"/>
-      <c r="DU22" s="14"/>
-      <c r="DV22" s="14"/>
-      <c r="DW22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DX22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DY22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="DZ22" s="14"/>
-      <c r="EA22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EB22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EC22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="ED22" s="14"/>
-      <c r="EE22" s="14"/>
-      <c r="EF22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EG22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EH22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EI22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EJ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EK22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EL22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EM22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EN22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EO22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EP22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EQ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="ER22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="ES22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="ET22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EU22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EV22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EW22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EX22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EY22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FA22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FB22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FC22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FD22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FE22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FF22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FG22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FH22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FI22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FJ22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FK22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FL22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FM22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FN22" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="FO22" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="U23" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="15"/>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
-      <c r="BN23" s="14"/>
-      <c r="BO23" s="14"/>
-      <c r="BP23" s="14"/>
-      <c r="BQ23"/>
-      <c r="CX23" s="14"/>
-      <c r="CY23" s="14"/>
-    </row>
-    <row r="24" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="22"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
+      <c r="AX24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI24" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ24" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK24" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="BL24" s="14"/>
       <c r="BM24" s="14"/>
       <c r="BN24" s="14"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="14"/>
-      <c r="BQ24"/>
-      <c r="CX24" s="14"/>
-      <c r="CY24" s="14"/>
+      <c r="BQ24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS24" s="14"/>
+      <c r="BT24" s="14"/>
+      <c r="BU24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BV24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BW24" s="14"/>
+      <c r="BX24" s="14"/>
+      <c r="BY24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BZ24" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="CA24" s="11"/>
+      <c r="CB24" s="11"/>
+      <c r="CC24" s="11"/>
+      <c r="CD24" s="11"/>
+      <c r="CE24" s="11"/>
+      <c r="CF24" s="11"/>
+      <c r="CG24" s="11"/>
+      <c r="CH24" s="11"/>
+      <c r="CI24" s="11"/>
+      <c r="CJ24" s="11"/>
+      <c r="CK24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CL24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CM24" s="14"/>
+      <c r="CN24" s="11"/>
+      <c r="CO24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CP24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CQ24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CR24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CS24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="CT24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="CU24" s="14"/>
+      <c r="CV24" s="14"/>
+      <c r="CW24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CX24" s="10"/>
+      <c r="CY24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CZ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DA24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DB24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DC24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DD24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DE24" s="10"/>
+      <c r="DF24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG24" s="10"/>
+      <c r="DH24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DI24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DJ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DK24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DO24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DP24" s="10"/>
+      <c r="DQ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY24" s="10"/>
+      <c r="DZ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EA24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EE24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EF24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EG24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EH24" s="10"/>
+      <c r="EI24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EJ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EK24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EL24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EM24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EN24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EO24" s="10"/>
+      <c r="EP24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EQ24" s="10"/>
+      <c r="ER24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="ES24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="ET24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EU24" s="10"/>
+      <c r="EV24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EZ24" s="10"/>
+      <c r="FA24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FB24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FC24" s="10"/>
+      <c r="FD24" s="10"/>
+      <c r="FE24" s="10"/>
+      <c r="FF24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FG24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FH24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FI24" s="10"/>
+      <c r="FJ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FK24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FL24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FM24" s="10"/>
+      <c r="FN24" s="10"/>
+      <c r="FO24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FP24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FQ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FR24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FS24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FT24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FU24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FV24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FW24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FX24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FY24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="FZ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GA24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GB24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GC24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GD24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GE24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GF24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GG24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GH24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GI24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GJ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GK24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GL24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GM24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GN24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GO24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GP24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GQ24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GR24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GS24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GT24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GU24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GV24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GW24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="GX24" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="14"/>
-      <c r="BQ25" s="14"/>
-      <c r="CX25" s="14"/>
-      <c r="CY25" s="14"/>
+    <row r="25" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
+      <c r="BY25" s="10"/>
+      <c r="BZ25" s="10"/>
+      <c r="CA25" s="10"/>
+      <c r="CB25" s="10"/>
+      <c r="CC25" s="10"/>
+      <c r="CD25" s="10"/>
+      <c r="CE25" s="10"/>
+      <c r="CF25" s="10"/>
+      <c r="CG25" s="10"/>
+      <c r="CH25" s="10"/>
+      <c r="CI25" s="10"/>
+      <c r="CJ25" s="10"/>
+      <c r="CK25" s="10"/>
+      <c r="CL25" s="10"/>
+      <c r="CM25" s="10"/>
+      <c r="CN25" s="10"/>
+      <c r="CO25" s="10"/>
+      <c r="CP25" s="10"/>
+      <c r="CQ25" s="10"/>
+      <c r="CR25" s="10"/>
+      <c r="CT25" s="10"/>
+      <c r="CU25" s="10"/>
+      <c r="CV25" s="10"/>
+      <c r="CW25" s="10"/>
+      <c r="CX25" s="10"/>
+      <c r="CY25" s="10"/>
+      <c r="CZ25"/>
+      <c r="EG25" s="10"/>
+      <c r="EH25" s="10"/>
     </row>
-    <row r="26" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
-      <c r="BQ26" s="14"/>
-      <c r="CX26" s="14"/>
-      <c r="CY26" s="14"/>
+    <row r="26" spans="1:206" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF26" s="15">
+        <v>232</v>
+      </c>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="10"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="10"/>
+      <c r="CJ26" s="10"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="10"/>
+      <c r="CP26" s="15"/>
+      <c r="CQ26" s="15"/>
+      <c r="CR26" s="15"/>
+      <c r="CS26" s="15"/>
+      <c r="CT26" s="15"/>
+      <c r="CU26" s="15"/>
+      <c r="CV26" s="15"/>
+      <c r="CW26" s="10"/>
+      <c r="CX26" s="10"/>
+      <c r="CY26" s="10"/>
+      <c r="CZ26"/>
+      <c r="EG26" s="10"/>
+      <c r="EH26" s="10"/>
     </row>
-    <row r="27" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="CX27"/>
-      <c r="CY27"/>
+    <row r="27" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF27" s="1">
+        <f>BF26+0.08*BF26</f>
+        <v>250.56</v>
+      </c>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
+      <c r="BK27" s="10"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
+      <c r="BO27" s="10"/>
+      <c r="BP27" s="10"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="10"/>
+      <c r="BZ27" s="10"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="10"/>
+      <c r="CC27" s="10"/>
+      <c r="CD27" s="10"/>
+      <c r="CE27" s="10"/>
+      <c r="CF27" s="10"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="10"/>
+      <c r="CJ27" s="10"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CN27" s="10"/>
+      <c r="CO27" s="10"/>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="10"/>
+      <c r="CT27" s="10"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="10"/>
+      <c r="CY27" s="10"/>
+      <c r="CZ27" s="10"/>
+      <c r="EG27" s="10"/>
+      <c r="EH27" s="10"/>
     </row>
-    <row r="28" spans="1:171" x14ac:dyDescent="0.3">
-      <c r="CX28" s="14"/>
-      <c r="CY28" s="14"/>
+    <row r="28" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF28" s="10">
+        <v>216</v>
+      </c>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
+      <c r="BR28" s="10"/>
+      <c r="BS28" s="10"/>
+      <c r="BT28" s="10"/>
+      <c r="BU28" s="10"/>
+      <c r="BV28" s="10"/>
+      <c r="BW28" s="10"/>
+      <c r="BX28" s="10"/>
+      <c r="BY28" s="10"/>
+      <c r="BZ28" s="10"/>
+      <c r="CA28" s="10"/>
+      <c r="CB28" s="10"/>
+      <c r="CC28" s="10"/>
+      <c r="CD28" s="10"/>
+      <c r="CE28" s="10"/>
+      <c r="CF28" s="10"/>
+      <c r="CG28" s="10"/>
+      <c r="CH28" s="10"/>
+      <c r="CI28" s="10"/>
+      <c r="CJ28" s="10"/>
+      <c r="CK28" s="10"/>
+      <c r="CL28" s="10"/>
+      <c r="CM28" s="10"/>
+      <c r="CN28" s="10"/>
+      <c r="CO28" s="10"/>
+      <c r="CP28" s="10"/>
+      <c r="CQ28" s="10"/>
+      <c r="CR28" s="10"/>
+      <c r="CS28" s="10"/>
+      <c r="CT28" s="10"/>
+      <c r="CU28" s="10"/>
+      <c r="CV28" s="10"/>
+      <c r="CW28" s="10"/>
+      <c r="CX28" s="10"/>
+      <c r="CY28" s="10"/>
+      <c r="CZ28" s="10"/>
+      <c r="EG28" s="10"/>
+      <c r="EH28" s="10"/>
+    </row>
+    <row r="29" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="BE29" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF29" s="10">
+        <f>BF27-BF28</f>
+        <v>34.56</v>
+      </c>
+      <c r="EG29"/>
+      <c r="EH29"/>
+    </row>
+    <row r="30" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="BE30" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF30" s="10">
+        <f>BF37-BF29</f>
+        <v>45.894545454545451</v>
+      </c>
+      <c r="EG30" s="10"/>
+      <c r="EH30" s="10"/>
+    </row>
+    <row r="31" spans="1:206" x14ac:dyDescent="0.25">
+      <c r="BE31" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF31" s="1">
+        <f>BF29/BF37*100</f>
+        <v>42.955932203389835</v>
+      </c>
+    </row>
+    <row r="33" spans="57:58" x14ac:dyDescent="0.25">
+      <c r="BE33" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF33" s="10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="57:58" x14ac:dyDescent="0.25">
+      <c r="BE34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF34" s="1">
+        <f>(12+30)/2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="57:58" x14ac:dyDescent="0.25">
+      <c r="BE35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="57:58" x14ac:dyDescent="0.25">
+      <c r="BE36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF36" s="1">
+        <f>BF35/BF34</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="57:58" x14ac:dyDescent="0.25">
+      <c r="BE37" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF37" s="10">
+        <f>BF33/BF36</f>
+        <v>80.454545454545453</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BF22" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
-    <hyperlink ref="BI22" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
-    <hyperlink ref="BH22" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
+    <hyperlink ref="BK24" r:id="rId1" xr:uid="{6ECC1BC1-6A9D-47DB-A7F7-9CB27B0DD369}"/>
+    <hyperlink ref="CS24" r:id="rId2" xr:uid="{EDB87DA1-D9E3-4479-B32D-C2DC72BFD960}"/>
+    <hyperlink ref="BU24" r:id="rId3" xr:uid="{ABCC75A9-9223-46DE-B255-B5C0DF62A92C}"/>
+    <hyperlink ref="BH24" r:id="rId4" xr:uid="{BED053A5-66DE-4B2A-AD5A-BB7670246D86}"/>
+    <hyperlink ref="BF24" r:id="rId5" xr:uid="{9A39A0F7-066C-4C25-91F4-405B283CDE84}"/>
+    <hyperlink ref="BJ24" r:id="rId6" xr:uid="{8564E850-C680-4482-A06F-49E336D191C0}"/>
+    <hyperlink ref="CT24" r:id="rId7" xr:uid="{2DCE46FE-D9B5-49D0-9B16-84E35676A223}"/>
+    <hyperlink ref="BV24" r:id="rId8" xr:uid="{D7BD2C0A-DE86-4FB8-A99F-77DAAA140D31}"/>
+    <hyperlink ref="BG24" r:id="rId9" xr:uid="{0917DBA6-B9AF-4D9E-B493-582360513525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>